--- a/SP_Sklad/Rep/MatIn.xlsx
+++ b/SP_Sklad/Rep/MatIn.xlsx
@@ -9,7 +9,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="MatGroup">Лист1!$A$11:$M$257</definedName>
+    <definedName name="MatGroup">Лист1!$A$11:$M$280</definedName>
     <definedName name="MatInDet">Лист1!#REF!</definedName>
     <definedName name="MatOutDet">Лист1!#REF!</definedName>
     <definedName name="range1">Лист1!#REF!</definedName>
@@ -74,43 +74,10 @@
     <t>Ціна</t>
   </si>
   <si>
-    <t>ФОП Лялецька №1</t>
+    <t>Яловичина</t>
   </si>
   <si>
     <t>ПН</t>
-  </si>
-  <si>
-    <t>Пн-114</t>
-  </si>
-  <si>
-    <t>Софієвські 1.с". Сардельки</t>
-  </si>
-  <si>
-    <t>кг.</t>
-  </si>
-  <si>
-    <t>Разом по катогорії:</t>
-  </si>
-  <si>
-    <t xml:space="preserve">СПД Мордвінова В.В.м. Київ Волинська  "Ернест"</t>
-  </si>
-  <si>
-    <t>Пн-103</t>
-  </si>
-  <si>
-    <t>шорти</t>
-  </si>
-  <si>
-    <t>п.метр</t>
-  </si>
-  <si>
-    <t>ФОП Губрієнко( Юра) м.Київ Марка Вовчка(Подольська база)</t>
-  </si>
-  <si>
-    <t>Пн-104</t>
-  </si>
-  <si>
-    <t>Tect2</t>
   </si>
   <si>
     <t>Пн-101</t>
@@ -119,10 +86,85 @@
     <t xml:space="preserve">Яловичина  1 сотру</t>
   </si>
   <si>
+    <t>кг.</t>
+  </si>
+  <si>
     <t>Яловичина 2с.</t>
   </si>
   <si>
     <t>Яловичина односортна</t>
+  </si>
+  <si>
+    <t>wwwwwww</t>
+  </si>
+  <si>
+    <t>Разом по катогорії:</t>
+  </si>
+  <si>
+    <t>Варені ковбаси</t>
+  </si>
+  <si>
+    <t>Лікарська вар. в. с.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Любительська  варена в.с.</t>
+  </si>
+  <si>
+    <t>Сімейна варена 2с.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Молочна  варена в.с.</t>
+  </si>
+  <si>
+    <t>Варено-копчені ковбаси</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Салямі  н.к.в.с.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сервілат в.к.   в.с.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Делікатесна з сиром  н.к.  1с.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Допоміжні матеріали </t>
+  </si>
+  <si>
+    <t>Емульсія свинної шкури</t>
+  </si>
+  <si>
+    <t>Шкіра свиняча</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Жилка </t>
+  </si>
+  <si>
+    <t>Сосиски та сардельки</t>
+  </si>
+  <si>
+    <t>Софієвські 1.с". Сардельки</t>
+  </si>
+  <si>
+    <t>Молочні" в.с. Сардельки</t>
+  </si>
+  <si>
+    <t>Колобок" 1.с. Сосиски</t>
+  </si>
+  <si>
+    <t>З салом" 2с. Сардельки</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Школярик"  в.с. Сосиски</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Молодіжні"  1 с. Сосиски</t>
+  </si>
+  <si>
+    <t>Любительські" в.с. Сосиски</t>
+  </si>
+  <si>
+    <t>Свинина</t>
   </si>
   <si>
     <t>Свинина не жирна</t>
@@ -134,10 +176,25 @@
     <t>Свинина жирна</t>
   </si>
   <si>
+    <t>Свинина ковбасна</t>
+  </si>
+  <si>
+    <t>Сало та жири</t>
+  </si>
+  <si>
     <t>Сало хребтове</t>
   </si>
   <si>
     <t>Сало бокове</t>
+  </si>
+  <si>
+    <t>Жир свинячий внутрішній</t>
+  </si>
+  <si>
+    <t>Жир яловичий внутрішній</t>
+  </si>
+  <si>
+    <t>Конина</t>
   </si>
   <si>
     <t>Мясо конини вищого сорту</t>
@@ -146,22 +203,7 @@
     <t>Мясо конини односортне</t>
   </si>
   <si>
-    <t>Емульсія свинної шкури</t>
-  </si>
-  <si>
-    <t>Шкіра свиняча</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Жилка </t>
-  </si>
-  <si>
-    <t>Жир свинячий внутрішній</t>
-  </si>
-  <si>
-    <t>Жир яловичий внутрішній</t>
-  </si>
-  <si>
-    <t>Свинина ковбасна</t>
+    <t>Субпродукти яловичини та свинини</t>
   </si>
   <si>
     <t>Голови свинячі</t>
@@ -171,6 +213,30 @@
   </si>
   <si>
     <t>Легені свинячі</t>
+  </si>
+  <si>
+    <t>Мясо курей</t>
+  </si>
+  <si>
+    <t>Філле курине</t>
+  </si>
+  <si>
+    <t>Окорочка курині</t>
+  </si>
+  <si>
+    <t>Крило курине</t>
+  </si>
+  <si>
+    <t>Гомілка курина</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Спинки  курині</t>
+  </si>
+  <si>
+    <t>Мясо курине</t>
+  </si>
+  <si>
+    <t>Свинні напівфабрикати</t>
   </si>
   <si>
     <t>Грудинка свиняча з кісточкою н.ф.</t>
@@ -194,64 +260,19 @@
     <t>Ребро свиняче н.ф.</t>
   </si>
   <si>
-    <t>Філле курине</t>
+    <t>Оболонка</t>
   </si>
   <si>
-    <t>Окорочка курині</t>
+    <t>Пн-103</t>
   </si>
   <si>
-    <t>Крило курине</t>
+    <t>шорти</t>
   </si>
   <si>
-    <t>Гомілка курина</t>
+    <t>п.метр</t>
   </si>
   <si>
-    <t xml:space="preserve">Спинки  курині</t>
-  </si>
-  <si>
-    <t>Лікарська вар. в. с.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Любительська  варена в.с.</t>
-  </si>
-  <si>
-    <t>Молочні" в.с. Сардельки</t>
-  </si>
-  <si>
-    <t>Колобок" 1.с. Сосиски</t>
-  </si>
-  <si>
-    <t>З салом" 2с. Сардельки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Школярик"  в.с. Сосиски</t>
-  </si>
-  <si>
-    <t>Мясо курине</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Молодіжні"  1 с. Сосиски</t>
-  </si>
-  <si>
-    <t>Сімейна варена 2с.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Салямі  н.к.в.с.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сервілат в.к.   в.с.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Молочна  варена в.с.</t>
-  </si>
-  <si>
-    <t>Любительські" в.с. Сосиски</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Делікатесна з сиром  н.к.  1с.</t>
-  </si>
-  <si>
-    <t>wwwwwww</t>
+    <t>Пн-104</t>
   </si>
   <si>
     <t>Всього по відомості:</t>
@@ -1399,7 +1420,7 @@
         <v>19</v>
       </c>
       <c r="D13" s="31">
-        <v>42611.698744872687</v>
+        <v>42552.559449803237</v>
       </c>
       <c r="E13" s="32" t="s">
         <v>20</v>
@@ -1409,104 +1430,150 @@
         <v>21</v>
       </c>
       <c r="H13" s="35">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="I13" s="36">
-        <v>5000</v>
+        <v>10</v>
       </c>
       <c r="J13" s="37">
         <f>IF(H13&gt;0,I13/H13," ")</f>
-        <v>5</v>
-      </c>
-      <c r="K13" s="35">
-        <v>500</v>
-      </c>
-      <c r="L13" s="36">
-        <v>2500</v>
-      </c>
-      <c r="M13" s="38">
+        <v>10</v>
+      </c>
+      <c r="K13" s="35"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="38" t="str">
         <f>IF(K13&gt;0,L13/K13," ")</f>
-        <v>5</v>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
-      <c r="B14" s="39"/>
-      <c r="C14" s="39" t="s">
+      <c r="B14" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D14" s="31">
+        <v>42552.559449803237</v>
+      </c>
+      <c r="E14" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D14" s="39"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42">
-        <f>SUM(I13)</f>
-        <v>5000</v>
-      </c>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="42">
-        <f>SUM(L13)</f>
-        <v>2500</v>
-      </c>
-      <c r="M14" s="43"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H14" s="35">
+        <v>1</v>
+      </c>
+      <c r="I14" s="36">
+        <v>1</v>
+      </c>
+      <c r="J14" s="37">
+        <f>IF(H14&gt;0,I14/H14," ")</f>
+        <v>1</v>
+      </c>
+      <c r="K14" s="35"/>
+      <c r="L14" s="36"/>
+      <c r="M14" s="38" t="str">
+        <f>IF(K14&gt;0,L14/K14," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
-      <c r="B15" s="23"/>
-      <c r="C15" s="24"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="25"/>
+      <c r="B15" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D15" s="31">
+        <v>42552.559449803237</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="33"/>
+      <c r="G15" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H15" s="35">
+        <v>1</v>
+      </c>
+      <c r="I15" s="36">
+        <v>0</v>
+      </c>
+      <c r="J15" s="37">
+        <f>IF(H15&gt;0,I15/H15," ")</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="35"/>
+      <c r="L15" s="36"/>
+      <c r="M15" s="38" t="str">
+        <f>IF(K15&gt;0,L15/K15," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
-      <c r="B16" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="28"/>
+      <c r="B16" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D16" s="31">
+        <v>42552.559626932867</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16" s="33"/>
+      <c r="G16" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H16" s="35">
+        <v>1</v>
+      </c>
+      <c r="I16" s="36">
+        <v>10</v>
+      </c>
+      <c r="J16" s="37">
+        <f>IF(H16&gt;0,I16/H16," ")</f>
+        <v>10</v>
+      </c>
+      <c r="K16" s="35"/>
+      <c r="L16" s="36"/>
+      <c r="M16" s="38" t="str">
+        <f>IF(K16&gt;0,L16/K16," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="B17" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C17" s="30" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D17" s="31">
-        <v>42552.9921412037</v>
+        <v>42552.559626932867</v>
       </c>
       <c r="E17" s="32" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F17" s="33"/>
       <c r="G17" s="34" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H17" s="35">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="I17" s="36">
-        <v>250</v>
+        <v>1</v>
       </c>
       <c r="J17" s="37">
         <f>IF(H17&gt;0,I17/H17," ")</f>
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="K17" s="35"/>
       <c r="L17" s="36"/>
@@ -1520,27 +1587,27 @@
         <v>18</v>
       </c>
       <c r="C18" s="30" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="D18" s="31">
-        <v>42552.9921412037</v>
+        <v>42552.559626932867</v>
       </c>
       <c r="E18" s="32" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F18" s="33"/>
       <c r="G18" s="34" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H18" s="35">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="I18" s="36">
-        <v>700</v>
+        <v>0</v>
       </c>
       <c r="J18" s="37">
         <f>IF(H18&gt;0,I18/H18," ")</f>
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="K18" s="35"/>
       <c r="L18" s="36"/>
@@ -1550,83 +1617,133 @@
       </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
-      <c r="B19" s="39"/>
-      <c r="C19" s="39" t="s">
+      <c r="B19" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="31">
+        <v>42552.559449803237</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19" s="33"/>
+      <c r="G19" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H19" s="35">
+        <v>1</v>
+      </c>
+      <c r="I19" s="36">
+        <v>10</v>
+      </c>
+      <c r="J19" s="37">
+        <f>IF(H19&gt;0,I19/H19," ")</f>
+        <v>10</v>
+      </c>
+      <c r="K19" s="35"/>
+      <c r="L19" s="36"/>
+      <c r="M19" s="38" t="str">
+        <f>IF(K19&gt;0,L19/K19," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="20" ht="12.75" customHeight="1">
+      <c r="B20" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="31">
+        <v>42552.559449803237</v>
+      </c>
+      <c r="E20" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="39"/>
-      <c r="E19" s="40"/>
-      <c r="F19" s="40"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="42"/>
-      <c r="I19" s="42">
-        <f>SUM(I17:I18)</f>
-        <v>950</v>
-      </c>
-      <c r="J19" s="42"/>
-      <c r="K19" s="42"/>
-      <c r="L19" s="42">
-        <f>SUM(L17:L18)</f>
+      <c r="F20" s="33"/>
+      <c r="G20" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H20" s="35">
+        <v>1</v>
+      </c>
+      <c r="I20" s="36">
+        <v>1</v>
+      </c>
+      <c r="J20" s="37">
+        <f>IF(H20&gt;0,I20/H20," ")</f>
+        <v>1</v>
+      </c>
+      <c r="K20" s="35"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="38" t="str">
+        <f>IF(K20&gt;0,L20/K20," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="21" ht="12.75" customHeight="1">
+      <c r="B21" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="31">
+        <v>42552.559449803237</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F21" s="33"/>
+      <c r="G21" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="35">
+        <v>1</v>
+      </c>
+      <c r="I21" s="36">
         <v>0</v>
       </c>
-      <c r="M19" s="43"/>
-    </row>
-    <row r="20" ht="12.75" customHeight="1">
-      <c r="B20" s="23"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="25"/>
-    </row>
-    <row r="21" ht="12.75" customHeight="1">
-      <c r="B21" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="C21" s="27"/>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="27"/>
-      <c r="H21" s="27"/>
-      <c r="I21" s="27"/>
-      <c r="J21" s="27"/>
-      <c r="K21" s="27"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="28"/>
+      <c r="J21" s="37">
+        <f>IF(H21&gt;0,I21/H21," ")</f>
+        <v>0</v>
+      </c>
+      <c r="K21" s="35"/>
+      <c r="L21" s="36"/>
+      <c r="M21" s="38" t="str">
+        <f>IF(K21&gt;0,L21/K21," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
       <c r="B22" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C22" s="30" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D22" s="31">
-        <v>42553.993414351848</v>
+        <v>42552.590989386576</v>
       </c>
       <c r="E22" s="32" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F22" s="33"/>
       <c r="G22" s="34" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H22" s="35">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="I22" s="36">
-        <v>900</v>
+        <v>10</v>
       </c>
       <c r="J22" s="37">
         <f>IF(H22&gt;0,I22/H22," ")</f>
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="K22" s="35"/>
       <c r="L22" s="36"/>
@@ -1640,27 +1757,27 @@
         <v>18</v>
       </c>
       <c r="C23" s="30" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D23" s="31">
-        <v>42553.993414351848</v>
+        <v>42552.590989386576</v>
       </c>
       <c r="E23" s="32" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F23" s="33"/>
       <c r="G23" s="34" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="H23" s="35">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I23" s="36">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="J23" s="37">
         <f>IF(H23&gt;0,I23/H23," ")</f>
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="K23" s="35"/>
       <c r="L23" s="36"/>
@@ -1670,69 +1787,119 @@
       </c>
     </row>
     <row r="24" ht="12.75" customHeight="1">
-      <c r="B24" s="39"/>
-      <c r="C24" s="39" t="s">
+      <c r="B24" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24" s="31">
+        <v>42552.590989386576</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>23</v>
+      </c>
+      <c r="F24" s="33"/>
+      <c r="G24" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H24" s="35">
+        <v>1</v>
+      </c>
+      <c r="I24" s="36">
+        <v>0</v>
+      </c>
+      <c r="J24" s="37">
+        <f>IF(H24&gt;0,I24/H24," ")</f>
+        <v>0</v>
+      </c>
+      <c r="K24" s="35"/>
+      <c r="L24" s="36"/>
+      <c r="M24" s="38" t="str">
+        <f>IF(K24&gt;0,L24/K24," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="25" ht="12.75" customHeight="1">
+      <c r="B25" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="31">
+        <v>42552.592038113427</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="33"/>
+      <c r="G25" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H25" s="35">
+        <v>1</v>
+      </c>
+      <c r="I25" s="36">
+        <v>10</v>
+      </c>
+      <c r="J25" s="37">
+        <f>IF(H25&gt;0,I25/H25," ")</f>
+        <v>10</v>
+      </c>
+      <c r="K25" s="35"/>
+      <c r="L25" s="36"/>
+      <c r="M25" s="38" t="str">
+        <f>IF(K25&gt;0,L25/K25," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="26" ht="12.75" customHeight="1">
+      <c r="B26" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D26" s="31">
+        <v>42552.592038113427</v>
+      </c>
+      <c r="E26" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D24" s="39"/>
-      <c r="E24" s="40"/>
-      <c r="F24" s="40"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42">
-        <f>SUM(I22:I23)</f>
-        <v>990</v>
-      </c>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
-      <c r="L24" s="42">
-        <f>SUM(L22:L23)</f>
-        <v>0</v>
-      </c>
-      <c r="M24" s="43"/>
-    </row>
-    <row r="25" ht="12.75" customHeight="1">
-      <c r="B25" s="23"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="25"/>
-    </row>
-    <row r="26" ht="12.75" customHeight="1">
-      <c r="B26" s="26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" s="27"/>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-      <c r="K26" s="27"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="28"/>
+      <c r="F26" s="33"/>
+      <c r="G26" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H26" s="35">
+        <v>1</v>
+      </c>
+      <c r="I26" s="36">
+        <v>1</v>
+      </c>
+      <c r="J26" s="37">
+        <f>IF(H26&gt;0,I26/H26," ")</f>
+        <v>1</v>
+      </c>
+      <c r="K26" s="35"/>
+      <c r="L26" s="36"/>
+      <c r="M26" s="38" t="str">
+        <f>IF(K26&gt;0,L26/K26," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="27" ht="12.75" customHeight="1">
       <c r="B27" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C27" s="30" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D27" s="31">
-        <v>42552.559449803237</v>
+        <v>42552.592038113427</v>
       </c>
       <c r="E27" s="32" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="F27" s="33"/>
       <c r="G27" s="34" t="s">
@@ -1742,11 +1909,11 @@
         <v>1</v>
       </c>
       <c r="I27" s="36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J27" s="37">
         <f>IF(H27&gt;0,I27/H27," ")</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K27" s="35"/>
       <c r="L27" s="36"/>
@@ -1756,119 +1923,69 @@
       </c>
     </row>
     <row r="28" ht="12.75" customHeight="1">
-      <c r="B28" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D28" s="31">
-        <v>42552.559449803237</v>
-      </c>
-      <c r="E28" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="F28" s="33"/>
-      <c r="G28" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="H28" s="35">
-        <v>1</v>
-      </c>
-      <c r="I28" s="36">
-        <v>10</v>
-      </c>
-      <c r="J28" s="37">
-        <f>IF(H28&gt;0,I28/H28," ")</f>
-        <v>10</v>
-      </c>
-      <c r="K28" s="35"/>
-      <c r="L28" s="36"/>
-      <c r="M28" s="38" t="str">
-        <f>IF(K28&gt;0,L28/K28," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="B28" s="39"/>
+      <c r="C28" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D28" s="39"/>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="41"/>
+      <c r="H28" s="42"/>
+      <c r="I28" s="42">
+        <f>SUM(I13:I27)</f>
+        <v>55</v>
+      </c>
+      <c r="J28" s="42"/>
+      <c r="K28" s="42"/>
+      <c r="L28" s="42">
+        <f>SUM(L13:L27)</f>
+        <v>0</v>
+      </c>
+      <c r="M28" s="43"/>
     </row>
     <row r="29" ht="12.75" customHeight="1">
-      <c r="B29" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D29" s="31">
-        <v>42552.559449803237</v>
-      </c>
-      <c r="E29" s="32" t="s">
-        <v>32</v>
-      </c>
-      <c r="F29" s="33"/>
-      <c r="G29" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="H29" s="35">
-        <v>1</v>
-      </c>
-      <c r="I29" s="36">
-        <v>1</v>
-      </c>
-      <c r="J29" s="37">
-        <f>IF(H29&gt;0,I29/H29," ")</f>
-        <v>1</v>
-      </c>
-      <c r="K29" s="35"/>
-      <c r="L29" s="36"/>
-      <c r="M29" s="38" t="str">
-        <f>IF(K29&gt;0,L29/K29," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="B29" s="23"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="25"/>
     </row>
     <row r="30" ht="12.75" customHeight="1">
-      <c r="B30" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D30" s="31">
-        <v>42552.559449803237</v>
-      </c>
-      <c r="E30" s="32" t="s">
-        <v>33</v>
-      </c>
-      <c r="F30" s="33"/>
-      <c r="G30" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="H30" s="35">
-        <v>1</v>
-      </c>
-      <c r="I30" s="36">
-        <v>0</v>
-      </c>
-      <c r="J30" s="37">
-        <f>IF(H30&gt;0,I30/H30," ")</f>
-        <v>0</v>
-      </c>
-      <c r="K30" s="35"/>
-      <c r="L30" s="36"/>
-      <c r="M30" s="38" t="str">
-        <f>IF(K30&gt;0,L30/K30," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="B30" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="28"/>
     </row>
     <row r="31" ht="12.75" customHeight="1">
       <c r="B31" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C31" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D31" s="31">
         <v>42552.559449803237</v>
       </c>
       <c r="E31" s="32" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="F31" s="33"/>
       <c r="G31" s="34" t="s">
@@ -1878,11 +1995,11 @@
         <v>1</v>
       </c>
       <c r="I31" s="36">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J31" s="37">
         <f>IF(H31&gt;0,I31/H31," ")</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K31" s="35"/>
       <c r="L31" s="36"/>
@@ -1896,13 +2013,13 @@
         <v>18</v>
       </c>
       <c r="C32" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D32" s="31">
         <v>42552.559449803237</v>
       </c>
       <c r="E32" s="32" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F32" s="33"/>
       <c r="G32" s="34" t="s">
@@ -1912,11 +2029,11 @@
         <v>1</v>
       </c>
       <c r="I32" s="36">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J32" s="37">
         <f>IF(H32&gt;0,I32/H32," ")</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K32" s="35"/>
       <c r="L32" s="36"/>
@@ -1930,13 +2047,13 @@
         <v>18</v>
       </c>
       <c r="C33" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D33" s="31">
         <v>42552.559449803237</v>
       </c>
       <c r="E33" s="32" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="F33" s="33"/>
       <c r="G33" s="34" t="s">
@@ -1964,13 +2081,13 @@
         <v>18</v>
       </c>
       <c r="C34" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D34" s="31">
         <v>42552.559449803237</v>
       </c>
       <c r="E34" s="32" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="F34" s="33"/>
       <c r="G34" s="34" t="s">
@@ -1998,13 +2115,13 @@
         <v>18</v>
       </c>
       <c r="C35" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D35" s="31">
-        <v>42552.559449803237</v>
+        <v>42552.559626932867</v>
       </c>
       <c r="E35" s="32" t="s">
-        <v>38</v>
+        <v>27</v>
       </c>
       <c r="F35" s="33"/>
       <c r="G35" s="34" t="s">
@@ -2032,13 +2149,13 @@
         <v>18</v>
       </c>
       <c r="C36" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D36" s="31">
-        <v>42552.559449803237</v>
+        <v>42552.559626932867</v>
       </c>
       <c r="E36" s="32" t="s">
-        <v>39</v>
+        <v>28</v>
       </c>
       <c r="F36" s="33"/>
       <c r="G36" s="34" t="s">
@@ -2066,13 +2183,13 @@
         <v>18</v>
       </c>
       <c r="C37" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D37" s="31">
-        <v>42552.559449803237</v>
+        <v>42552.559626932867</v>
       </c>
       <c r="E37" s="32" t="s">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="F37" s="33"/>
       <c r="G37" s="34" t="s">
@@ -2100,13 +2217,13 @@
         <v>18</v>
       </c>
       <c r="C38" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D38" s="31">
+        <v>42552.559626932867</v>
+      </c>
+      <c r="E38" s="32" t="s">
         <v>30</v>
-      </c>
-      <c r="D38" s="31">
-        <v>42552.559449803237</v>
-      </c>
-      <c r="E38" s="32" t="s">
-        <v>41</v>
       </c>
       <c r="F38" s="33"/>
       <c r="G38" s="34" t="s">
@@ -2134,13 +2251,13 @@
         <v>18</v>
       </c>
       <c r="C39" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D39" s="31">
         <v>42552.559449803237</v>
       </c>
       <c r="E39" s="32" t="s">
-        <v>42</v>
+        <v>27</v>
       </c>
       <c r="F39" s="33"/>
       <c r="G39" s="34" t="s">
@@ -2168,13 +2285,13 @@
         <v>18</v>
       </c>
       <c r="C40" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D40" s="31">
         <v>42552.559449803237</v>
       </c>
       <c r="E40" s="32" t="s">
-        <v>43</v>
+        <v>28</v>
       </c>
       <c r="F40" s="33"/>
       <c r="G40" s="34" t="s">
@@ -2202,13 +2319,13 @@
         <v>18</v>
       </c>
       <c r="C41" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D41" s="31">
         <v>42552.559449803237</v>
       </c>
       <c r="E41" s="32" t="s">
-        <v>44</v>
+        <v>29</v>
       </c>
       <c r="F41" s="33"/>
       <c r="G41" s="34" t="s">
@@ -2236,13 +2353,13 @@
         <v>18</v>
       </c>
       <c r="C42" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D42" s="31">
         <v>42552.559449803237</v>
       </c>
       <c r="E42" s="32" t="s">
-        <v>45</v>
+        <v>30</v>
       </c>
       <c r="F42" s="33"/>
       <c r="G42" s="34" t="s">
@@ -2270,13 +2387,13 @@
         <v>18</v>
       </c>
       <c r="C43" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D43" s="31">
-        <v>42552.559449803237</v>
+        <v>42552.590989386576</v>
       </c>
       <c r="E43" s="32" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="F43" s="33"/>
       <c r="G43" s="34" t="s">
@@ -2304,13 +2421,13 @@
         <v>18</v>
       </c>
       <c r="C44" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D44" s="31">
-        <v>42552.559449803237</v>
+        <v>42552.590989386576</v>
       </c>
       <c r="E44" s="32" t="s">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="F44" s="33"/>
       <c r="G44" s="34" t="s">
@@ -2338,13 +2455,13 @@
         <v>18</v>
       </c>
       <c r="C45" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D45" s="31">
-        <v>42552.559449803237</v>
+        <v>42552.590989386576</v>
       </c>
       <c r="E45" s="32" t="s">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="F45" s="33"/>
       <c r="G45" s="34" t="s">
@@ -2372,13 +2489,13 @@
         <v>18</v>
       </c>
       <c r="C46" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D46" s="31">
+        <v>42552.590989386576</v>
+      </c>
+      <c r="E46" s="32" t="s">
         <v>30</v>
-      </c>
-      <c r="D46" s="31">
-        <v>42552.559449803237</v>
-      </c>
-      <c r="E46" s="32" t="s">
-        <v>49</v>
       </c>
       <c r="F46" s="33"/>
       <c r="G46" s="34" t="s">
@@ -2406,13 +2523,13 @@
         <v>18</v>
       </c>
       <c r="C47" s="30" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D47" s="31">
-        <v>42552.559449803237</v>
+        <v>42552.592038113427</v>
       </c>
       <c r="E47" s="32" t="s">
-        <v>50</v>
+        <v>27</v>
       </c>
       <c r="F47" s="33"/>
       <c r="G47" s="34" t="s">
@@ -2440,13 +2557,13 @@
         <v>18</v>
       </c>
       <c r="C48" s="30" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D48" s="31">
-        <v>42552.559449803237</v>
+        <v>42552.592038113427</v>
       </c>
       <c r="E48" s="32" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="F48" s="33"/>
       <c r="G48" s="34" t="s">
@@ -2474,13 +2591,13 @@
         <v>18</v>
       </c>
       <c r="C49" s="30" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D49" s="31">
-        <v>42552.559449803237</v>
+        <v>42552.592038113427</v>
       </c>
       <c r="E49" s="32" t="s">
-        <v>52</v>
+        <v>29</v>
       </c>
       <c r="F49" s="33"/>
       <c r="G49" s="34" t="s">
@@ -2508,13 +2625,13 @@
         <v>18</v>
       </c>
       <c r="C50" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D50" s="31">
+        <v>42552.592038113427</v>
+      </c>
+      <c r="E50" s="32" t="s">
         <v>30</v>
-      </c>
-      <c r="D50" s="31">
-        <v>42552.559449803237</v>
-      </c>
-      <c r="E50" s="32" t="s">
-        <v>53</v>
       </c>
       <c r="F50" s="33"/>
       <c r="G50" s="34" t="s">
@@ -2538,119 +2655,69 @@
       </c>
     </row>
     <row r="51" ht="12.75" customHeight="1">
-      <c r="B51" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C51" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D51" s="31">
-        <v>42552.559449803237</v>
-      </c>
-      <c r="E51" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="F51" s="33"/>
-      <c r="G51" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="H51" s="35">
-        <v>1</v>
-      </c>
-      <c r="I51" s="36">
-        <v>1</v>
-      </c>
-      <c r="J51" s="37">
-        <f>IF(H51&gt;0,I51/H51," ")</f>
-        <v>1</v>
-      </c>
-      <c r="K51" s="35"/>
-      <c r="L51" s="36"/>
-      <c r="M51" s="38" t="str">
-        <f>IF(K51&gt;0,L51/K51," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="B51" s="39"/>
+      <c r="C51" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D51" s="39"/>
+      <c r="E51" s="40"/>
+      <c r="F51" s="40"/>
+      <c r="G51" s="41"/>
+      <c r="H51" s="42"/>
+      <c r="I51" s="42">
+        <f>SUM(I31:I50)</f>
+        <v>20</v>
+      </c>
+      <c r="J51" s="42"/>
+      <c r="K51" s="42"/>
+      <c r="L51" s="42">
+        <f>SUM(L31:L50)</f>
+        <v>0</v>
+      </c>
+      <c r="M51" s="43"/>
     </row>
     <row r="52" ht="12.75" customHeight="1">
-      <c r="B52" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C52" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D52" s="31">
-        <v>42552.559449803237</v>
-      </c>
-      <c r="E52" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="F52" s="33"/>
-      <c r="G52" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="H52" s="35">
-        <v>1</v>
-      </c>
-      <c r="I52" s="36">
-        <v>1</v>
-      </c>
-      <c r="J52" s="37">
-        <f>IF(H52&gt;0,I52/H52," ")</f>
-        <v>1</v>
-      </c>
-      <c r="K52" s="35"/>
-      <c r="L52" s="36"/>
-      <c r="M52" s="38" t="str">
-        <f>IF(K52&gt;0,L52/K52," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="B52" s="23"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24"/>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="24"/>
+      <c r="M52" s="25"/>
     </row>
     <row r="53" ht="12.75" customHeight="1">
-      <c r="B53" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C53" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D53" s="31">
-        <v>42552.559449803237</v>
-      </c>
-      <c r="E53" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="F53" s="33"/>
-      <c r="G53" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="H53" s="35">
-        <v>1</v>
-      </c>
-      <c r="I53" s="36">
-        <v>1</v>
-      </c>
-      <c r="J53" s="37">
-        <f>IF(H53&gt;0,I53/H53," ")</f>
-        <v>1</v>
-      </c>
-      <c r="K53" s="35"/>
-      <c r="L53" s="36"/>
-      <c r="M53" s="38" t="str">
-        <f>IF(K53&gt;0,L53/K53," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="B53" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="C53" s="27"/>
+      <c r="D53" s="27"/>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="27"/>
+      <c r="H53" s="27"/>
+      <c r="I53" s="27"/>
+      <c r="J53" s="27"/>
+      <c r="K53" s="27"/>
+      <c r="L53" s="27"/>
+      <c r="M53" s="28"/>
     </row>
     <row r="54" ht="12.75" customHeight="1">
       <c r="B54" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C54" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D54" s="31">
         <v>42552.559449803237</v>
       </c>
       <c r="E54" s="32" t="s">
-        <v>57</v>
+        <v>32</v>
       </c>
       <c r="F54" s="33"/>
       <c r="G54" s="34" t="s">
@@ -2678,13 +2745,13 @@
         <v>18</v>
       </c>
       <c r="C55" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D55" s="31">
         <v>42552.559449803237</v>
       </c>
       <c r="E55" s="32" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
       <c r="F55" s="33"/>
       <c r="G55" s="34" t="s">
@@ -2694,11 +2761,11 @@
         <v>1</v>
       </c>
       <c r="I55" s="36">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J55" s="37">
         <f>IF(H55&gt;0,I55/H55," ")</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="K55" s="35"/>
       <c r="L55" s="36"/>
@@ -2712,13 +2779,13 @@
         <v>18</v>
       </c>
       <c r="C56" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D56" s="31">
         <v>42552.559449803237</v>
       </c>
       <c r="E56" s="32" t="s">
-        <v>59</v>
+        <v>34</v>
       </c>
       <c r="F56" s="33"/>
       <c r="G56" s="34" t="s">
@@ -2746,13 +2813,13 @@
         <v>18</v>
       </c>
       <c r="C57" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D57" s="31">
-        <v>42552.559449803237</v>
+        <v>42552.559626932867</v>
       </c>
       <c r="E57" s="32" t="s">
-        <v>60</v>
+        <v>32</v>
       </c>
       <c r="F57" s="33"/>
       <c r="G57" s="34" t="s">
@@ -2780,13 +2847,13 @@
         <v>18</v>
       </c>
       <c r="C58" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D58" s="31">
-        <v>42552.559449803237</v>
+        <v>42552.559626932867</v>
       </c>
       <c r="E58" s="32" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="F58" s="33"/>
       <c r="G58" s="34" t="s">
@@ -2814,13 +2881,13 @@
         <v>18</v>
       </c>
       <c r="C59" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D59" s="31">
-        <v>42552.559449803237</v>
+        <v>42552.559626932867</v>
       </c>
       <c r="E59" s="32" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="F59" s="33"/>
       <c r="G59" s="34" t="s">
@@ -2848,13 +2915,13 @@
         <v>18</v>
       </c>
       <c r="C60" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D60" s="31">
         <v>42552.559449803237</v>
       </c>
       <c r="E60" s="32" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="F60" s="33"/>
       <c r="G60" s="34" t="s">
@@ -2882,13 +2949,13 @@
         <v>18</v>
       </c>
       <c r="C61" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D61" s="31">
         <v>42552.559449803237</v>
       </c>
       <c r="E61" s="32" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="F61" s="33"/>
       <c r="G61" s="34" t="s">
@@ -2916,13 +2983,13 @@
         <v>18</v>
       </c>
       <c r="C62" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D62" s="31">
         <v>42552.559449803237</v>
       </c>
       <c r="E62" s="32" t="s">
-        <v>65</v>
+        <v>34</v>
       </c>
       <c r="F62" s="33"/>
       <c r="G62" s="34" t="s">
@@ -2950,13 +3017,13 @@
         <v>18</v>
       </c>
       <c r="C63" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D63" s="31">
-        <v>42552.559449803237</v>
+        <v>42552.590989386576</v>
       </c>
       <c r="E63" s="32" t="s">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="F63" s="33"/>
       <c r="G63" s="34" t="s">
@@ -2984,13 +3051,13 @@
         <v>18</v>
       </c>
       <c r="C64" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D64" s="31">
-        <v>42552.559449803237</v>
+        <v>42552.590989386576</v>
       </c>
       <c r="E64" s="32" t="s">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="F64" s="33"/>
       <c r="G64" s="34" t="s">
@@ -3018,13 +3085,13 @@
         <v>18</v>
       </c>
       <c r="C65" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D65" s="31">
-        <v>42552.559449803237</v>
+        <v>42552.590989386576</v>
       </c>
       <c r="E65" s="32" t="s">
-        <v>68</v>
+        <v>34</v>
       </c>
       <c r="F65" s="33"/>
       <c r="G65" s="34" t="s">
@@ -3052,13 +3119,13 @@
         <v>18</v>
       </c>
       <c r="C66" s="30" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D66" s="31">
-        <v>42552.559449803237</v>
+        <v>42552.592038113427</v>
       </c>
       <c r="E66" s="32" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="F66" s="33"/>
       <c r="G66" s="34" t="s">
@@ -3086,13 +3153,13 @@
         <v>18</v>
       </c>
       <c r="C67" s="30" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D67" s="31">
-        <v>42552.559449803237</v>
+        <v>42552.592038113427</v>
       </c>
       <c r="E67" s="32" t="s">
-        <v>70</v>
+        <v>33</v>
       </c>
       <c r="F67" s="33"/>
       <c r="G67" s="34" t="s">
@@ -3120,13 +3187,13 @@
         <v>18</v>
       </c>
       <c r="C68" s="30" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D68" s="31">
-        <v>42552.559449803237</v>
+        <v>42552.592038113427</v>
       </c>
       <c r="E68" s="32" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="F68" s="33"/>
       <c r="G68" s="34" t="s">
@@ -3150,119 +3217,69 @@
       </c>
     </row>
     <row r="69" ht="12.75" customHeight="1">
-      <c r="B69" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C69" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D69" s="31">
-        <v>42552.559449803237</v>
-      </c>
-      <c r="E69" s="32" t="s">
-        <v>72</v>
-      </c>
-      <c r="F69" s="33"/>
-      <c r="G69" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="H69" s="35">
-        <v>1</v>
-      </c>
-      <c r="I69" s="36">
-        <v>1</v>
-      </c>
-      <c r="J69" s="37">
-        <f>IF(H69&gt;0,I69/H69," ")</f>
-        <v>1</v>
-      </c>
-      <c r="K69" s="35"/>
-      <c r="L69" s="36"/>
-      <c r="M69" s="38" t="str">
-        <f>IF(K69&gt;0,L69/K69," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="B69" s="39"/>
+      <c r="C69" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D69" s="39"/>
+      <c r="E69" s="40"/>
+      <c r="F69" s="40"/>
+      <c r="G69" s="41"/>
+      <c r="H69" s="42"/>
+      <c r="I69" s="42">
+        <f>SUM(I54:I68)</f>
+        <v>15</v>
+      </c>
+      <c r="J69" s="42"/>
+      <c r="K69" s="42"/>
+      <c r="L69" s="42">
+        <f>SUM(L54:L68)</f>
+        <v>0</v>
+      </c>
+      <c r="M69" s="43"/>
     </row>
     <row r="70" ht="12.75" customHeight="1">
-      <c r="B70" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C70" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D70" s="31">
-        <v>42552.559449803237</v>
-      </c>
-      <c r="E70" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="F70" s="33"/>
-      <c r="G70" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="H70" s="35">
-        <v>1</v>
-      </c>
-      <c r="I70" s="36">
-        <v>1</v>
-      </c>
-      <c r="J70" s="37">
-        <f>IF(H70&gt;0,I70/H70," ")</f>
-        <v>1</v>
-      </c>
-      <c r="K70" s="35"/>
-      <c r="L70" s="36"/>
-      <c r="M70" s="38" t="str">
-        <f>IF(K70&gt;0,L70/K70," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="B70" s="23"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="24"/>
+      <c r="I70" s="24"/>
+      <c r="J70" s="24"/>
+      <c r="K70" s="24"/>
+      <c r="L70" s="24"/>
+      <c r="M70" s="25"/>
     </row>
     <row r="71" ht="12.75" customHeight="1">
-      <c r="B71" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C71" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D71" s="31">
-        <v>42552.559449803237</v>
-      </c>
-      <c r="E71" s="32" t="s">
-        <v>74</v>
-      </c>
-      <c r="F71" s="33"/>
-      <c r="G71" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="H71" s="35">
-        <v>1</v>
-      </c>
-      <c r="I71" s="36">
-        <v>1</v>
-      </c>
-      <c r="J71" s="37">
-        <f>IF(H71&gt;0,I71/H71," ")</f>
-        <v>1</v>
-      </c>
-      <c r="K71" s="35"/>
-      <c r="L71" s="36"/>
-      <c r="M71" s="38" t="str">
-        <f>IF(K71&gt;0,L71/K71," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="B71" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="C71" s="27"/>
+      <c r="D71" s="27"/>
+      <c r="E71" s="27"/>
+      <c r="F71" s="27"/>
+      <c r="G71" s="27"/>
+      <c r="H71" s="27"/>
+      <c r="I71" s="27"/>
+      <c r="J71" s="27"/>
+      <c r="K71" s="27"/>
+      <c r="L71" s="27"/>
+      <c r="M71" s="28"/>
     </row>
     <row r="72" ht="12.75" customHeight="1">
       <c r="B72" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C72" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D72" s="31">
         <v>42552.559449803237</v>
       </c>
       <c r="E72" s="32" t="s">
-        <v>75</v>
+        <v>36</v>
       </c>
       <c r="F72" s="33"/>
       <c r="G72" s="34" t="s">
@@ -3290,13 +3307,13 @@
         <v>18</v>
       </c>
       <c r="C73" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D73" s="31">
-        <v>42552.559626932867</v>
+        <v>42552.559449803237</v>
       </c>
       <c r="E73" s="32" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="F73" s="33"/>
       <c r="G73" s="34" t="s">
@@ -3324,13 +3341,13 @@
         <v>18</v>
       </c>
       <c r="C74" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D74" s="31">
-        <v>42552.559626932867</v>
+        <v>42552.559449803237</v>
       </c>
       <c r="E74" s="32" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="F74" s="33"/>
       <c r="G74" s="34" t="s">
@@ -3340,11 +3357,11 @@
         <v>1</v>
       </c>
       <c r="I74" s="36">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J74" s="37">
         <f>IF(H74&gt;0,I74/H74," ")</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K74" s="35"/>
       <c r="L74" s="36"/>
@@ -3358,13 +3375,13 @@
         <v>18</v>
       </c>
       <c r="C75" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D75" s="31">
         <v>42552.559626932867</v>
       </c>
       <c r="E75" s="32" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="F75" s="33"/>
       <c r="G75" s="34" t="s">
@@ -3392,13 +3409,13 @@
         <v>18</v>
       </c>
       <c r="C76" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D76" s="31">
         <v>42552.559626932867</v>
       </c>
       <c r="E76" s="32" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F76" s="33"/>
       <c r="G76" s="34" t="s">
@@ -3408,11 +3425,11 @@
         <v>1</v>
       </c>
       <c r="I76" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J76" s="37">
         <f>IF(H76&gt;0,I76/H76," ")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K76" s="35"/>
       <c r="L76" s="36"/>
@@ -3426,13 +3443,13 @@
         <v>18</v>
       </c>
       <c r="C77" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D77" s="31">
         <v>42552.559626932867</v>
       </c>
       <c r="E77" s="32" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="F77" s="33"/>
       <c r="G77" s="34" t="s">
@@ -3442,11 +3459,11 @@
         <v>1</v>
       </c>
       <c r="I77" s="36">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J77" s="37">
         <f>IF(H77&gt;0,I77/H77," ")</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K77" s="35"/>
       <c r="L77" s="36"/>
@@ -3460,13 +3477,13 @@
         <v>18</v>
       </c>
       <c r="C78" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D78" s="31">
-        <v>42552.559626932867</v>
+        <v>42552.559449803237</v>
       </c>
       <c r="E78" s="32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F78" s="33"/>
       <c r="G78" s="34" t="s">
@@ -3476,11 +3493,11 @@
         <v>1</v>
       </c>
       <c r="I78" s="36">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J78" s="37">
         <f>IF(H78&gt;0,I78/H78," ")</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K78" s="35"/>
       <c r="L78" s="36"/>
@@ -3494,13 +3511,13 @@
         <v>18</v>
       </c>
       <c r="C79" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D79" s="31">
-        <v>42552.559626932867</v>
+        <v>42552.559449803237</v>
       </c>
       <c r="E79" s="32" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F79" s="33"/>
       <c r="G79" s="34" t="s">
@@ -3528,13 +3545,13 @@
         <v>18</v>
       </c>
       <c r="C80" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D80" s="31">
-        <v>42552.559626932867</v>
+        <v>42552.559449803237</v>
       </c>
       <c r="E80" s="32" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F80" s="33"/>
       <c r="G80" s="34" t="s">
@@ -3562,13 +3579,13 @@
         <v>18</v>
       </c>
       <c r="C81" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D81" s="31">
-        <v>42552.559626932867</v>
+        <v>42552.590989386576</v>
       </c>
       <c r="E81" s="32" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F81" s="33"/>
       <c r="G81" s="34" t="s">
@@ -3596,13 +3613,13 @@
         <v>18</v>
       </c>
       <c r="C82" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D82" s="31">
-        <v>42552.559626932867</v>
+        <v>42552.590989386576</v>
       </c>
       <c r="E82" s="32" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="F82" s="33"/>
       <c r="G82" s="34" t="s">
@@ -3630,13 +3647,13 @@
         <v>18</v>
       </c>
       <c r="C83" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D83" s="31">
-        <v>42552.559626932867</v>
+        <v>42552.590989386576</v>
       </c>
       <c r="E83" s="32" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F83" s="33"/>
       <c r="G83" s="34" t="s">
@@ -3664,13 +3681,13 @@
         <v>18</v>
       </c>
       <c r="C84" s="30" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D84" s="31">
-        <v>42552.559626932867</v>
+        <v>42552.592038113427</v>
       </c>
       <c r="E84" s="32" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="F84" s="33"/>
       <c r="G84" s="34" t="s">
@@ -3698,13 +3715,13 @@
         <v>18</v>
       </c>
       <c r="C85" s="30" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D85" s="31">
-        <v>42552.559626932867</v>
+        <v>42552.592038113427</v>
       </c>
       <c r="E85" s="32" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="F85" s="33"/>
       <c r="G85" s="34" t="s">
@@ -3732,13 +3749,13 @@
         <v>18</v>
       </c>
       <c r="C86" s="30" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D86" s="31">
-        <v>42552.559626932867</v>
+        <v>42552.592038113427</v>
       </c>
       <c r="E86" s="32" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F86" s="33"/>
       <c r="G86" s="34" t="s">
@@ -3762,119 +3779,69 @@
       </c>
     </row>
     <row r="87" ht="12.75" customHeight="1">
-      <c r="B87" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C87" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D87" s="31">
-        <v>42552.559626932867</v>
-      </c>
-      <c r="E87" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="F87" s="33"/>
-      <c r="G87" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="H87" s="35">
-        <v>1</v>
-      </c>
-      <c r="I87" s="36">
-        <v>1</v>
-      </c>
-      <c r="J87" s="37">
-        <f>IF(H87&gt;0,I87/H87," ")</f>
-        <v>1</v>
-      </c>
-      <c r="K87" s="35"/>
-      <c r="L87" s="36"/>
-      <c r="M87" s="38" t="str">
-        <f>IF(K87&gt;0,L87/K87," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="B87" s="39"/>
+      <c r="C87" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D87" s="39"/>
+      <c r="E87" s="40"/>
+      <c r="F87" s="40"/>
+      <c r="G87" s="41"/>
+      <c r="H87" s="42"/>
+      <c r="I87" s="42">
+        <f>SUM(I72:I86)</f>
+        <v>15</v>
+      </c>
+      <c r="J87" s="42"/>
+      <c r="K87" s="42"/>
+      <c r="L87" s="42">
+        <f>SUM(L72:L86)</f>
+        <v>0</v>
+      </c>
+      <c r="M87" s="43"/>
     </row>
     <row r="88" ht="12.75" customHeight="1">
-      <c r="B88" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C88" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D88" s="31">
-        <v>42552.559626932867</v>
-      </c>
-      <c r="E88" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="F88" s="33"/>
-      <c r="G88" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="H88" s="35">
-        <v>1</v>
-      </c>
-      <c r="I88" s="36">
-        <v>1</v>
-      </c>
-      <c r="J88" s="37">
-        <f>IF(H88&gt;0,I88/H88," ")</f>
-        <v>1</v>
-      </c>
-      <c r="K88" s="35"/>
-      <c r="L88" s="36"/>
-      <c r="M88" s="38" t="str">
-        <f>IF(K88&gt;0,L88/K88," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="B88" s="23"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="24"/>
+      <c r="G88" s="24"/>
+      <c r="H88" s="24"/>
+      <c r="I88" s="24"/>
+      <c r="J88" s="24"/>
+      <c r="K88" s="24"/>
+      <c r="L88" s="24"/>
+      <c r="M88" s="25"/>
     </row>
     <row r="89" ht="12.75" customHeight="1">
-      <c r="B89" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C89" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D89" s="31">
-        <v>42552.559626932867</v>
-      </c>
-      <c r="E89" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="F89" s="33"/>
-      <c r="G89" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="H89" s="35">
-        <v>1</v>
-      </c>
-      <c r="I89" s="36">
-        <v>1</v>
-      </c>
-      <c r="J89" s="37">
-        <f>IF(H89&gt;0,I89/H89," ")</f>
-        <v>1</v>
-      </c>
-      <c r="K89" s="35"/>
-      <c r="L89" s="36"/>
-      <c r="M89" s="38" t="str">
-        <f>IF(K89&gt;0,L89/K89," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="B89" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="C89" s="27"/>
+      <c r="D89" s="27"/>
+      <c r="E89" s="27"/>
+      <c r="F89" s="27"/>
+      <c r="G89" s="27"/>
+      <c r="H89" s="27"/>
+      <c r="I89" s="27"/>
+      <c r="J89" s="27"/>
+      <c r="K89" s="27"/>
+      <c r="L89" s="27"/>
+      <c r="M89" s="28"/>
     </row>
     <row r="90" ht="12.75" customHeight="1">
       <c r="B90" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C90" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D90" s="31">
-        <v>42552.559626932867</v>
+        <v>42552.559449803237</v>
       </c>
       <c r="E90" s="32" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="F90" s="33"/>
       <c r="G90" s="34" t="s">
@@ -3902,13 +3869,13 @@
         <v>18</v>
       </c>
       <c r="C91" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D91" s="31">
-        <v>42552.559626932867</v>
+        <v>42552.559449803237</v>
       </c>
       <c r="E91" s="32" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="F91" s="33"/>
       <c r="G91" s="34" t="s">
@@ -3936,13 +3903,13 @@
         <v>18</v>
       </c>
       <c r="C92" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D92" s="31">
-        <v>42552.559626932867</v>
+        <v>42552.559449803237</v>
       </c>
       <c r="E92" s="32" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
       <c r="F92" s="33"/>
       <c r="G92" s="34" t="s">
@@ -3970,13 +3937,13 @@
         <v>18</v>
       </c>
       <c r="C93" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D93" s="31">
-        <v>42552.559626932867</v>
+        <v>42552.559449803237</v>
       </c>
       <c r="E93" s="32" t="s">
-        <v>50</v>
+        <v>43</v>
       </c>
       <c r="F93" s="33"/>
       <c r="G93" s="34" t="s">
@@ -4004,13 +3971,13 @@
         <v>18</v>
       </c>
       <c r="C94" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D94" s="31">
-        <v>42552.559626932867</v>
+        <v>42552.559449803237</v>
       </c>
       <c r="E94" s="32" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="F94" s="33"/>
       <c r="G94" s="34" t="s">
@@ -4038,13 +4005,13 @@
         <v>18</v>
       </c>
       <c r="C95" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D95" s="31">
-        <v>42552.559626932867</v>
+        <v>42552.559449803237</v>
       </c>
       <c r="E95" s="32" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="F95" s="33"/>
       <c r="G95" s="34" t="s">
@@ -4072,13 +4039,13 @@
         <v>18</v>
       </c>
       <c r="C96" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D96" s="31">
-        <v>42552.559626932867</v>
+        <v>42552.559449803237</v>
       </c>
       <c r="E96" s="32" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="F96" s="33"/>
       <c r="G96" s="34" t="s">
@@ -4106,13 +4073,13 @@
         <v>18</v>
       </c>
       <c r="C97" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D97" s="31">
         <v>42552.559626932867</v>
       </c>
       <c r="E97" s="32" t="s">
-        <v>54</v>
+        <v>40</v>
       </c>
       <c r="F97" s="33"/>
       <c r="G97" s="34" t="s">
@@ -4140,13 +4107,13 @@
         <v>18</v>
       </c>
       <c r="C98" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D98" s="31">
         <v>42552.559626932867</v>
       </c>
       <c r="E98" s="32" t="s">
-        <v>55</v>
+        <v>41</v>
       </c>
       <c r="F98" s="33"/>
       <c r="G98" s="34" t="s">
@@ -4174,13 +4141,13 @@
         <v>18</v>
       </c>
       <c r="C99" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D99" s="31">
         <v>42552.559626932867</v>
       </c>
       <c r="E99" s="32" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="F99" s="33"/>
       <c r="G99" s="34" t="s">
@@ -4208,13 +4175,13 @@
         <v>18</v>
       </c>
       <c r="C100" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D100" s="31">
         <v>42552.559626932867</v>
       </c>
       <c r="E100" s="32" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="F100" s="33"/>
       <c r="G100" s="34" t="s">
@@ -4242,13 +4209,13 @@
         <v>18</v>
       </c>
       <c r="C101" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D101" s="31">
         <v>42552.559626932867</v>
       </c>
       <c r="E101" s="32" t="s">
-        <v>58</v>
+        <v>44</v>
       </c>
       <c r="F101" s="33"/>
       <c r="G101" s="34" t="s">
@@ -4258,11 +4225,11 @@
         <v>1</v>
       </c>
       <c r="I101" s="36">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J101" s="37">
         <f>IF(H101&gt;0,I101/H101," ")</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="K101" s="35"/>
       <c r="L101" s="36"/>
@@ -4276,13 +4243,13 @@
         <v>18</v>
       </c>
       <c r="C102" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D102" s="31">
         <v>42552.559626932867</v>
       </c>
       <c r="E102" s="32" t="s">
-        <v>59</v>
+        <v>45</v>
       </c>
       <c r="F102" s="33"/>
       <c r="G102" s="34" t="s">
@@ -4310,13 +4277,13 @@
         <v>18</v>
       </c>
       <c r="C103" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D103" s="31">
         <v>42552.559626932867</v>
       </c>
       <c r="E103" s="32" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="F103" s="33"/>
       <c r="G103" s="34" t="s">
@@ -4344,13 +4311,13 @@
         <v>18</v>
       </c>
       <c r="C104" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D104" s="31">
-        <v>42552.559626932867</v>
+        <v>42552.559449803237</v>
       </c>
       <c r="E104" s="32" t="s">
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="F104" s="33"/>
       <c r="G104" s="34" t="s">
@@ -4378,13 +4345,13 @@
         <v>18</v>
       </c>
       <c r="C105" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D105" s="31">
-        <v>42552.559626932867</v>
+        <v>42552.559449803237</v>
       </c>
       <c r="E105" s="32" t="s">
-        <v>62</v>
+        <v>41</v>
       </c>
       <c r="F105" s="33"/>
       <c r="G105" s="34" t="s">
@@ -4412,13 +4379,13 @@
         <v>18</v>
       </c>
       <c r="C106" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D106" s="31">
-        <v>42552.559626932867</v>
+        <v>42552.559449803237</v>
       </c>
       <c r="E106" s="32" t="s">
-        <v>63</v>
+        <v>42</v>
       </c>
       <c r="F106" s="33"/>
       <c r="G106" s="34" t="s">
@@ -4446,13 +4413,13 @@
         <v>18</v>
       </c>
       <c r="C107" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D107" s="31">
-        <v>42552.559626932867</v>
+        <v>42552.559449803237</v>
       </c>
       <c r="E107" s="32" t="s">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="F107" s="33"/>
       <c r="G107" s="34" t="s">
@@ -4480,13 +4447,13 @@
         <v>18</v>
       </c>
       <c r="C108" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D108" s="31">
-        <v>42552.559626932867</v>
+        <v>42552.559449803237</v>
       </c>
       <c r="E108" s="32" t="s">
-        <v>65</v>
+        <v>44</v>
       </c>
       <c r="F108" s="33"/>
       <c r="G108" s="34" t="s">
@@ -4514,13 +4481,13 @@
         <v>18</v>
       </c>
       <c r="C109" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D109" s="31">
-        <v>42552.559626932867</v>
+        <v>42552.559449803237</v>
       </c>
       <c r="E109" s="32" t="s">
-        <v>66</v>
+        <v>45</v>
       </c>
       <c r="F109" s="33"/>
       <c r="G109" s="34" t="s">
@@ -4548,13 +4515,13 @@
         <v>18</v>
       </c>
       <c r="C110" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D110" s="31">
-        <v>42552.559626932867</v>
+        <v>42552.559449803237</v>
       </c>
       <c r="E110" s="32" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="F110" s="33"/>
       <c r="G110" s="34" t="s">
@@ -4582,13 +4549,13 @@
         <v>18</v>
       </c>
       <c r="C111" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D111" s="31">
-        <v>42552.559626932867</v>
+        <v>42552.590989386576</v>
       </c>
       <c r="E111" s="32" t="s">
-        <v>68</v>
+        <v>40</v>
       </c>
       <c r="F111" s="33"/>
       <c r="G111" s="34" t="s">
@@ -4598,11 +4565,11 @@
         <v>1</v>
       </c>
       <c r="I111" s="36">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J111" s="37">
         <f>IF(H111&gt;0,I111/H111," ")</f>
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="K111" s="35"/>
       <c r="L111" s="36"/>
@@ -4616,13 +4583,13 @@
         <v>18</v>
       </c>
       <c r="C112" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D112" s="31">
-        <v>42552.559626932867</v>
+        <v>42552.590989386576</v>
       </c>
       <c r="E112" s="32" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="F112" s="33"/>
       <c r="G112" s="34" t="s">
@@ -4650,13 +4617,13 @@
         <v>18</v>
       </c>
       <c r="C113" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D113" s="31">
-        <v>42552.559626932867</v>
+        <v>42552.590989386576</v>
       </c>
       <c r="E113" s="32" t="s">
-        <v>70</v>
+        <v>42</v>
       </c>
       <c r="F113" s="33"/>
       <c r="G113" s="34" t="s">
@@ -4684,13 +4651,13 @@
         <v>18</v>
       </c>
       <c r="C114" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D114" s="31">
-        <v>42552.559626932867</v>
+        <v>42552.590989386576</v>
       </c>
       <c r="E114" s="32" t="s">
-        <v>71</v>
+        <v>43</v>
       </c>
       <c r="F114" s="33"/>
       <c r="G114" s="34" t="s">
@@ -4718,13 +4685,13 @@
         <v>18</v>
       </c>
       <c r="C115" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D115" s="31">
-        <v>42552.559626932867</v>
+        <v>42552.590989386576</v>
       </c>
       <c r="E115" s="32" t="s">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="F115" s="33"/>
       <c r="G115" s="34" t="s">
@@ -4752,13 +4719,13 @@
         <v>18</v>
       </c>
       <c r="C116" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D116" s="31">
-        <v>42552.559626932867</v>
+        <v>42552.590989386576</v>
       </c>
       <c r="E116" s="32" t="s">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="F116" s="33"/>
       <c r="G116" s="34" t="s">
@@ -4786,13 +4753,13 @@
         <v>18</v>
       </c>
       <c r="C117" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D117" s="31">
-        <v>42552.559626932867</v>
+        <v>42552.590989386576</v>
       </c>
       <c r="E117" s="32" t="s">
-        <v>74</v>
+        <v>46</v>
       </c>
       <c r="F117" s="33"/>
       <c r="G117" s="34" t="s">
@@ -4820,13 +4787,13 @@
         <v>18</v>
       </c>
       <c r="C118" s="30" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D118" s="31">
-        <v>42552.559626932867</v>
+        <v>42552.592038113427</v>
       </c>
       <c r="E118" s="32" t="s">
-        <v>75</v>
+        <v>40</v>
       </c>
       <c r="F118" s="33"/>
       <c r="G118" s="34" t="s">
@@ -4854,13 +4821,13 @@
         <v>18</v>
       </c>
       <c r="C119" s="30" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D119" s="31">
-        <v>42552.559449803237</v>
+        <v>42552.592038113427</v>
       </c>
       <c r="E119" s="32" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="F119" s="33"/>
       <c r="G119" s="34" t="s">
@@ -4888,13 +4855,13 @@
         <v>18</v>
       </c>
       <c r="C120" s="30" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D120" s="31">
-        <v>42552.559449803237</v>
+        <v>42552.592038113427</v>
       </c>
       <c r="E120" s="32" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="F120" s="33"/>
       <c r="G120" s="34" t="s">
@@ -4904,11 +4871,11 @@
         <v>1</v>
       </c>
       <c r="I120" s="36">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J120" s="37">
         <f>IF(H120&gt;0,I120/H120," ")</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K120" s="35"/>
       <c r="L120" s="36"/>
@@ -4922,13 +4889,13 @@
         <v>18</v>
       </c>
       <c r="C121" s="30" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D121" s="31">
-        <v>42552.559449803237</v>
+        <v>42552.592038113427</v>
       </c>
       <c r="E121" s="32" t="s">
-        <v>32</v>
+        <v>43</v>
       </c>
       <c r="F121" s="33"/>
       <c r="G121" s="34" t="s">
@@ -4956,13 +4923,13 @@
         <v>18</v>
       </c>
       <c r="C122" s="30" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D122" s="31">
-        <v>42552.559449803237</v>
+        <v>42552.592038113427</v>
       </c>
       <c r="E122" s="32" t="s">
-        <v>33</v>
+        <v>44</v>
       </c>
       <c r="F122" s="33"/>
       <c r="G122" s="34" t="s">
@@ -4972,11 +4939,11 @@
         <v>1</v>
       </c>
       <c r="I122" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J122" s="37">
         <f>IF(H122&gt;0,I122/H122," ")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K122" s="35"/>
       <c r="L122" s="36"/>
@@ -4990,13 +4957,13 @@
         <v>18</v>
       </c>
       <c r="C123" s="30" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D123" s="31">
-        <v>42552.559449803237</v>
+        <v>42552.592038113427</v>
       </c>
       <c r="E123" s="32" t="s">
-        <v>34</v>
+        <v>45</v>
       </c>
       <c r="F123" s="33"/>
       <c r="G123" s="34" t="s">
@@ -5006,11 +4973,11 @@
         <v>1</v>
       </c>
       <c r="I123" s="36">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J123" s="37">
         <f>IF(H123&gt;0,I123/H123," ")</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K123" s="35"/>
       <c r="L123" s="36"/>
@@ -5024,13 +4991,13 @@
         <v>18</v>
       </c>
       <c r="C124" s="30" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D124" s="31">
-        <v>42552.559449803237</v>
+        <v>42552.592038113427</v>
       </c>
       <c r="E124" s="32" t="s">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="F124" s="33"/>
       <c r="G124" s="34" t="s">
@@ -5040,11 +5007,11 @@
         <v>1</v>
       </c>
       <c r="I124" s="36">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J124" s="37">
         <f>IF(H124&gt;0,I124/H124," ")</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K124" s="35"/>
       <c r="L124" s="36"/>
@@ -5054,119 +5021,69 @@
       </c>
     </row>
     <row r="125" ht="12.75" customHeight="1">
-      <c r="B125" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C125" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D125" s="31">
-        <v>42552.559449803237</v>
-      </c>
-      <c r="E125" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="F125" s="33"/>
-      <c r="G125" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="H125" s="35">
-        <v>1</v>
-      </c>
-      <c r="I125" s="36">
-        <v>1</v>
-      </c>
-      <c r="J125" s="37">
-        <f>IF(H125&gt;0,I125/H125," ")</f>
-        <v>1</v>
-      </c>
-      <c r="K125" s="35"/>
-      <c r="L125" s="36"/>
-      <c r="M125" s="38" t="str">
-        <f>IF(K125&gt;0,L125/K125," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="B125" s="39"/>
+      <c r="C125" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D125" s="39"/>
+      <c r="E125" s="40"/>
+      <c r="F125" s="40"/>
+      <c r="G125" s="41"/>
+      <c r="H125" s="42"/>
+      <c r="I125" s="42">
+        <f>SUM(I90:I124)</f>
+        <v>39</v>
+      </c>
+      <c r="J125" s="42"/>
+      <c r="K125" s="42"/>
+      <c r="L125" s="42">
+        <f>SUM(L90:L124)</f>
+        <v>0</v>
+      </c>
+      <c r="M125" s="43"/>
     </row>
     <row r="126" ht="12.75" customHeight="1">
-      <c r="B126" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C126" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D126" s="31">
-        <v>42552.559449803237</v>
-      </c>
-      <c r="E126" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="F126" s="33"/>
-      <c r="G126" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="H126" s="35">
-        <v>1</v>
-      </c>
-      <c r="I126" s="36">
-        <v>1</v>
-      </c>
-      <c r="J126" s="37">
-        <f>IF(H126&gt;0,I126/H126," ")</f>
-        <v>1</v>
-      </c>
-      <c r="K126" s="35"/>
-      <c r="L126" s="36"/>
-      <c r="M126" s="38" t="str">
-        <f>IF(K126&gt;0,L126/K126," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="B126" s="23"/>
+      <c r="C126" s="24"/>
+      <c r="D126" s="24"/>
+      <c r="E126" s="24"/>
+      <c r="F126" s="24"/>
+      <c r="G126" s="24"/>
+      <c r="H126" s="24"/>
+      <c r="I126" s="24"/>
+      <c r="J126" s="24"/>
+      <c r="K126" s="24"/>
+      <c r="L126" s="24"/>
+      <c r="M126" s="25"/>
     </row>
     <row r="127" ht="12.75" customHeight="1">
-      <c r="B127" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C127" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D127" s="31">
-        <v>42552.559449803237</v>
-      </c>
-      <c r="E127" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="F127" s="33"/>
-      <c r="G127" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="H127" s="35">
-        <v>1</v>
-      </c>
-      <c r="I127" s="36">
-        <v>1</v>
-      </c>
-      <c r="J127" s="37">
-        <f>IF(H127&gt;0,I127/H127," ")</f>
-        <v>1</v>
-      </c>
-      <c r="K127" s="35"/>
-      <c r="L127" s="36"/>
-      <c r="M127" s="38" t="str">
-        <f>IF(K127&gt;0,L127/K127," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="B127" s="26" t="s">
+        <v>47</v>
+      </c>
+      <c r="C127" s="27"/>
+      <c r="D127" s="27"/>
+      <c r="E127" s="27"/>
+      <c r="F127" s="27"/>
+      <c r="G127" s="27"/>
+      <c r="H127" s="27"/>
+      <c r="I127" s="27"/>
+      <c r="J127" s="27"/>
+      <c r="K127" s="27"/>
+      <c r="L127" s="27"/>
+      <c r="M127" s="28"/>
     </row>
     <row r="128" ht="12.75" customHeight="1">
       <c r="B128" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C128" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D128" s="31">
         <v>42552.559449803237</v>
       </c>
       <c r="E128" s="32" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="F128" s="33"/>
       <c r="G128" s="34" t="s">
@@ -5176,11 +5093,11 @@
         <v>1</v>
       </c>
       <c r="I128" s="36">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J128" s="37">
         <f>IF(H128&gt;0,I128/H128," ")</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K128" s="35"/>
       <c r="L128" s="36"/>
@@ -5194,13 +5111,13 @@
         <v>18</v>
       </c>
       <c r="C129" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D129" s="31">
         <v>42552.559449803237</v>
       </c>
       <c r="E129" s="32" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="F129" s="33"/>
       <c r="G129" s="34" t="s">
@@ -5210,11 +5127,11 @@
         <v>1</v>
       </c>
       <c r="I129" s="36">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J129" s="37">
         <f>IF(H129&gt;0,I129/H129," ")</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K129" s="35"/>
       <c r="L129" s="36"/>
@@ -5228,13 +5145,13 @@
         <v>18</v>
       </c>
       <c r="C130" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D130" s="31">
         <v>42552.559449803237</v>
       </c>
       <c r="E130" s="32" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F130" s="33"/>
       <c r="G130" s="34" t="s">
@@ -5262,13 +5179,13 @@
         <v>18</v>
       </c>
       <c r="C131" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D131" s="31">
         <v>42552.559449803237</v>
       </c>
       <c r="E131" s="32" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="F131" s="33"/>
       <c r="G131" s="34" t="s">
@@ -5296,13 +5213,13 @@
         <v>18</v>
       </c>
       <c r="C132" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D132" s="31">
-        <v>42552.559449803237</v>
+        <v>42552.559626932867</v>
       </c>
       <c r="E132" s="32" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F132" s="33"/>
       <c r="G132" s="34" t="s">
@@ -5312,11 +5229,11 @@
         <v>1</v>
       </c>
       <c r="I132" s="36">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J132" s="37">
         <f>IF(H132&gt;0,I132/H132," ")</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K132" s="35"/>
       <c r="L132" s="36"/>
@@ -5330,13 +5247,13 @@
         <v>18</v>
       </c>
       <c r="C133" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D133" s="31">
-        <v>42552.559449803237</v>
+        <v>42552.559626932867</v>
       </c>
       <c r="E133" s="32" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="F133" s="33"/>
       <c r="G133" s="34" t="s">
@@ -5346,11 +5263,11 @@
         <v>1</v>
       </c>
       <c r="I133" s="36">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J133" s="37">
         <f>IF(H133&gt;0,I133/H133," ")</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K133" s="35"/>
       <c r="L133" s="36"/>
@@ -5364,13 +5281,13 @@
         <v>18</v>
       </c>
       <c r="C134" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D134" s="31">
-        <v>42552.559449803237</v>
+        <v>42552.559626932867</v>
       </c>
       <c r="E134" s="32" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F134" s="33"/>
       <c r="G134" s="34" t="s">
@@ -5398,13 +5315,13 @@
         <v>18</v>
       </c>
       <c r="C135" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D135" s="31">
-        <v>42552.559449803237</v>
+        <v>42552.559626932867</v>
       </c>
       <c r="E135" s="32" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F135" s="33"/>
       <c r="G135" s="34" t="s">
@@ -5432,13 +5349,13 @@
         <v>18</v>
       </c>
       <c r="C136" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D136" s="31">
         <v>42552.559449803237</v>
       </c>
       <c r="E136" s="32" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F136" s="33"/>
       <c r="G136" s="34" t="s">
@@ -5448,11 +5365,11 @@
         <v>1</v>
       </c>
       <c r="I136" s="36">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J136" s="37">
         <f>IF(H136&gt;0,I136/H136," ")</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K136" s="35"/>
       <c r="L136" s="36"/>
@@ -5466,13 +5383,13 @@
         <v>18</v>
       </c>
       <c r="C137" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D137" s="31">
         <v>42552.559449803237</v>
       </c>
       <c r="E137" s="32" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F137" s="33"/>
       <c r="G137" s="34" t="s">
@@ -5482,11 +5399,11 @@
         <v>1</v>
       </c>
       <c r="I137" s="36">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J137" s="37">
         <f>IF(H137&gt;0,I137/H137," ")</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K137" s="35"/>
       <c r="L137" s="36"/>
@@ -5500,13 +5417,13 @@
         <v>18</v>
       </c>
       <c r="C138" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D138" s="31">
         <v>42552.559449803237</v>
       </c>
       <c r="E138" s="32" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F138" s="33"/>
       <c r="G138" s="34" t="s">
@@ -5534,13 +5451,13 @@
         <v>18</v>
       </c>
       <c r="C139" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D139" s="31">
         <v>42552.559449803237</v>
       </c>
       <c r="E139" s="32" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F139" s="33"/>
       <c r="G139" s="34" t="s">
@@ -5568,13 +5485,13 @@
         <v>18</v>
       </c>
       <c r="C140" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D140" s="31">
-        <v>42552.559449803237</v>
+        <v>42552.590989386576</v>
       </c>
       <c r="E140" s="32" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="F140" s="33"/>
       <c r="G140" s="34" t="s">
@@ -5584,11 +5501,11 @@
         <v>1</v>
       </c>
       <c r="I140" s="36">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J140" s="37">
         <f>IF(H140&gt;0,I140/H140," ")</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K140" s="35"/>
       <c r="L140" s="36"/>
@@ -5602,13 +5519,13 @@
         <v>18</v>
       </c>
       <c r="C141" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D141" s="31">
-        <v>42552.559449803237</v>
+        <v>42552.590989386576</v>
       </c>
       <c r="E141" s="32" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="F141" s="33"/>
       <c r="G141" s="34" t="s">
@@ -5618,11 +5535,11 @@
         <v>1</v>
       </c>
       <c r="I141" s="36">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J141" s="37">
         <f>IF(H141&gt;0,I141/H141," ")</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K141" s="35"/>
       <c r="L141" s="36"/>
@@ -5636,13 +5553,13 @@
         <v>18</v>
       </c>
       <c r="C142" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D142" s="31">
-        <v>42552.559449803237</v>
+        <v>42552.590989386576</v>
       </c>
       <c r="E142" s="32" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F142" s="33"/>
       <c r="G142" s="34" t="s">
@@ -5670,13 +5587,13 @@
         <v>18</v>
       </c>
       <c r="C143" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D143" s="31">
-        <v>42552.559449803237</v>
+        <v>42552.590989386576</v>
       </c>
       <c r="E143" s="32" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="F143" s="33"/>
       <c r="G143" s="34" t="s">
@@ -5704,13 +5621,13 @@
         <v>18</v>
       </c>
       <c r="C144" s="30" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D144" s="31">
-        <v>42552.559449803237</v>
+        <v>42552.592038113427</v>
       </c>
       <c r="E144" s="32" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="F144" s="33"/>
       <c r="G144" s="34" t="s">
@@ -5720,11 +5637,11 @@
         <v>1</v>
       </c>
       <c r="I144" s="36">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J144" s="37">
         <f>IF(H144&gt;0,I144/H144," ")</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K144" s="35"/>
       <c r="L144" s="36"/>
@@ -5738,13 +5655,13 @@
         <v>18</v>
       </c>
       <c r="C145" s="30" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D145" s="31">
-        <v>42552.559449803237</v>
+        <v>42552.592038113427</v>
       </c>
       <c r="E145" s="32" t="s">
-        <v>56</v>
+        <v>49</v>
       </c>
       <c r="F145" s="33"/>
       <c r="G145" s="34" t="s">
@@ -5754,11 +5671,11 @@
         <v>1</v>
       </c>
       <c r="I145" s="36">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J145" s="37">
         <f>IF(H145&gt;0,I145/H145," ")</f>
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="K145" s="35"/>
       <c r="L145" s="36"/>
@@ -5772,13 +5689,13 @@
         <v>18</v>
       </c>
       <c r="C146" s="30" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D146" s="31">
-        <v>42552.559449803237</v>
+        <v>42552.592038113427</v>
       </c>
       <c r="E146" s="32" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="F146" s="33"/>
       <c r="G146" s="34" t="s">
@@ -5806,13 +5723,13 @@
         <v>18</v>
       </c>
       <c r="C147" s="30" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D147" s="31">
-        <v>42552.559449803237</v>
+        <v>42552.592038113427</v>
       </c>
       <c r="E147" s="32" t="s">
-        <v>58</v>
+        <v>51</v>
       </c>
       <c r="F147" s="33"/>
       <c r="G147" s="34" t="s">
@@ -5822,11 +5739,11 @@
         <v>1</v>
       </c>
       <c r="I147" s="36">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J147" s="37">
         <f>IF(H147&gt;0,I147/H147," ")</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="K147" s="35"/>
       <c r="L147" s="36"/>
@@ -5836,119 +5753,69 @@
       </c>
     </row>
     <row r="148" ht="12.75" customHeight="1">
-      <c r="B148" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C148" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D148" s="31">
-        <v>42552.559449803237</v>
-      </c>
-      <c r="E148" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="F148" s="33"/>
-      <c r="G148" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="H148" s="35">
-        <v>1</v>
-      </c>
-      <c r="I148" s="36">
-        <v>1</v>
-      </c>
-      <c r="J148" s="37">
-        <f>IF(H148&gt;0,I148/H148," ")</f>
-        <v>1</v>
-      </c>
-      <c r="K148" s="35"/>
-      <c r="L148" s="36"/>
-      <c r="M148" s="38" t="str">
-        <f>IF(K148&gt;0,L148/K148," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="B148" s="39"/>
+      <c r="C148" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D148" s="39"/>
+      <c r="E148" s="40"/>
+      <c r="F148" s="40"/>
+      <c r="G148" s="41"/>
+      <c r="H148" s="42"/>
+      <c r="I148" s="42">
+        <f>SUM(I128:I147)</f>
+        <v>110</v>
+      </c>
+      <c r="J148" s="42"/>
+      <c r="K148" s="42"/>
+      <c r="L148" s="42">
+        <f>SUM(L128:L147)</f>
+        <v>0</v>
+      </c>
+      <c r="M148" s="43"/>
     </row>
     <row r="149" ht="12.75" customHeight="1">
-      <c r="B149" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C149" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D149" s="31">
-        <v>42552.559449803237</v>
-      </c>
-      <c r="E149" s="32" t="s">
-        <v>60</v>
-      </c>
-      <c r="F149" s="33"/>
-      <c r="G149" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="H149" s="35">
-        <v>1</v>
-      </c>
-      <c r="I149" s="36">
-        <v>1</v>
-      </c>
-      <c r="J149" s="37">
-        <f>IF(H149&gt;0,I149/H149," ")</f>
-        <v>1</v>
-      </c>
-      <c r="K149" s="35"/>
-      <c r="L149" s="36"/>
-      <c r="M149" s="38" t="str">
-        <f>IF(K149&gt;0,L149/K149," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="B149" s="23"/>
+      <c r="C149" s="24"/>
+      <c r="D149" s="24"/>
+      <c r="E149" s="24"/>
+      <c r="F149" s="24"/>
+      <c r="G149" s="24"/>
+      <c r="H149" s="24"/>
+      <c r="I149" s="24"/>
+      <c r="J149" s="24"/>
+      <c r="K149" s="24"/>
+      <c r="L149" s="24"/>
+      <c r="M149" s="25"/>
     </row>
     <row r="150" ht="12.75" customHeight="1">
-      <c r="B150" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C150" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D150" s="31">
-        <v>42552.559449803237</v>
-      </c>
-      <c r="E150" s="32" t="s">
-        <v>61</v>
-      </c>
-      <c r="F150" s="33"/>
-      <c r="G150" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="H150" s="35">
-        <v>1</v>
-      </c>
-      <c r="I150" s="36">
-        <v>1</v>
-      </c>
-      <c r="J150" s="37">
-        <f>IF(H150&gt;0,I150/H150," ")</f>
-        <v>1</v>
-      </c>
-      <c r="K150" s="35"/>
-      <c r="L150" s="36"/>
-      <c r="M150" s="38" t="str">
-        <f>IF(K150&gt;0,L150/K150," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="B150" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="C150" s="27"/>
+      <c r="D150" s="27"/>
+      <c r="E150" s="27"/>
+      <c r="F150" s="27"/>
+      <c r="G150" s="27"/>
+      <c r="H150" s="27"/>
+      <c r="I150" s="27"/>
+      <c r="J150" s="27"/>
+      <c r="K150" s="27"/>
+      <c r="L150" s="27"/>
+      <c r="M150" s="28"/>
     </row>
     <row r="151" ht="12.75" customHeight="1">
       <c r="B151" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C151" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D151" s="31">
         <v>42552.559449803237</v>
       </c>
       <c r="E151" s="32" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="F151" s="33"/>
       <c r="G151" s="34" t="s">
@@ -5976,13 +5843,13 @@
         <v>18</v>
       </c>
       <c r="C152" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D152" s="31">
         <v>42552.559449803237</v>
       </c>
       <c r="E152" s="32" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="F152" s="33"/>
       <c r="G152" s="34" t="s">
@@ -6010,13 +5877,13 @@
         <v>18</v>
       </c>
       <c r="C153" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D153" s="31">
         <v>42552.559449803237</v>
       </c>
       <c r="E153" s="32" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="F153" s="33"/>
       <c r="G153" s="34" t="s">
@@ -6044,13 +5911,13 @@
         <v>18</v>
       </c>
       <c r="C154" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D154" s="31">
         <v>42552.559449803237</v>
       </c>
       <c r="E154" s="32" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="F154" s="33"/>
       <c r="G154" s="34" t="s">
@@ -6078,13 +5945,13 @@
         <v>18</v>
       </c>
       <c r="C155" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D155" s="31">
-        <v>42552.559449803237</v>
+        <v>42552.559626932867</v>
       </c>
       <c r="E155" s="32" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="F155" s="33"/>
       <c r="G155" s="34" t="s">
@@ -6112,13 +5979,13 @@
         <v>18</v>
       </c>
       <c r="C156" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D156" s="31">
-        <v>42552.559449803237</v>
+        <v>42552.559626932867</v>
       </c>
       <c r="E156" s="32" t="s">
-        <v>67</v>
+        <v>54</v>
       </c>
       <c r="F156" s="33"/>
       <c r="G156" s="34" t="s">
@@ -6146,13 +6013,13 @@
         <v>18</v>
       </c>
       <c r="C157" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D157" s="31">
-        <v>42552.559449803237</v>
+        <v>42552.559626932867</v>
       </c>
       <c r="E157" s="32" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
       <c r="F157" s="33"/>
       <c r="G157" s="34" t="s">
@@ -6180,13 +6047,13 @@
         <v>18</v>
       </c>
       <c r="C158" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D158" s="31">
-        <v>42552.559449803237</v>
+        <v>42552.559626932867</v>
       </c>
       <c r="E158" s="32" t="s">
-        <v>69</v>
+        <v>56</v>
       </c>
       <c r="F158" s="33"/>
       <c r="G158" s="34" t="s">
@@ -6214,13 +6081,13 @@
         <v>18</v>
       </c>
       <c r="C159" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D159" s="31">
         <v>42552.559449803237</v>
       </c>
       <c r="E159" s="32" t="s">
-        <v>70</v>
+        <v>53</v>
       </c>
       <c r="F159" s="33"/>
       <c r="G159" s="34" t="s">
@@ -6248,13 +6115,13 @@
         <v>18</v>
       </c>
       <c r="C160" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D160" s="31">
         <v>42552.559449803237</v>
       </c>
       <c r="E160" s="32" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="F160" s="33"/>
       <c r="G160" s="34" t="s">
@@ -6282,13 +6149,13 @@
         <v>18</v>
       </c>
       <c r="C161" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D161" s="31">
         <v>42552.559449803237</v>
       </c>
       <c r="E161" s="32" t="s">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="F161" s="33"/>
       <c r="G161" s="34" t="s">
@@ -6316,13 +6183,13 @@
         <v>18</v>
       </c>
       <c r="C162" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D162" s="31">
         <v>42552.559449803237</v>
       </c>
       <c r="E162" s="32" t="s">
-        <v>73</v>
+        <v>56</v>
       </c>
       <c r="F162" s="33"/>
       <c r="G162" s="34" t="s">
@@ -6350,13 +6217,13 @@
         <v>18</v>
       </c>
       <c r="C163" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D163" s="31">
-        <v>42552.559449803237</v>
+        <v>42552.590989386576</v>
       </c>
       <c r="E163" s="32" t="s">
-        <v>74</v>
+        <v>53</v>
       </c>
       <c r="F163" s="33"/>
       <c r="G163" s="34" t="s">
@@ -6384,13 +6251,13 @@
         <v>18</v>
       </c>
       <c r="C164" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D164" s="31">
-        <v>42552.559449803237</v>
+        <v>42552.590989386576</v>
       </c>
       <c r="E164" s="32" t="s">
-        <v>75</v>
+        <v>54</v>
       </c>
       <c r="F164" s="33"/>
       <c r="G164" s="34" t="s">
@@ -6418,13 +6285,13 @@
         <v>18</v>
       </c>
       <c r="C165" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D165" s="31">
         <v>42552.590989386576</v>
       </c>
       <c r="E165" s="32" t="s">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="F165" s="33"/>
       <c r="G165" s="34" t="s">
@@ -6434,11 +6301,11 @@
         <v>1</v>
       </c>
       <c r="I165" s="36">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J165" s="37">
         <f>IF(H165&gt;0,I165/H165," ")</f>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="K165" s="35"/>
       <c r="L165" s="36"/>
@@ -6452,13 +6319,13 @@
         <v>18</v>
       </c>
       <c r="C166" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D166" s="31">
         <v>42552.590989386576</v>
       </c>
       <c r="E166" s="32" t="s">
-        <v>31</v>
+        <v>56</v>
       </c>
       <c r="F166" s="33"/>
       <c r="G166" s="34" t="s">
@@ -6468,11 +6335,11 @@
         <v>1</v>
       </c>
       <c r="I166" s="36">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J166" s="37">
         <f>IF(H166&gt;0,I166/H166," ")</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K166" s="35"/>
       <c r="L166" s="36"/>
@@ -6486,13 +6353,13 @@
         <v>18</v>
       </c>
       <c r="C167" s="30" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D167" s="31">
-        <v>42552.590989386576</v>
+        <v>42552.592038113427</v>
       </c>
       <c r="E167" s="32" t="s">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="F167" s="33"/>
       <c r="G167" s="34" t="s">
@@ -6520,13 +6387,13 @@
         <v>18</v>
       </c>
       <c r="C168" s="30" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D168" s="31">
-        <v>42552.590989386576</v>
+        <v>42552.592038113427</v>
       </c>
       <c r="E168" s="32" t="s">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="F168" s="33"/>
       <c r="G168" s="34" t="s">
@@ -6536,11 +6403,11 @@
         <v>1</v>
       </c>
       <c r="I168" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J168" s="37">
         <f>IF(H168&gt;0,I168/H168," ")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K168" s="35"/>
       <c r="L168" s="36"/>
@@ -6554,13 +6421,13 @@
         <v>18</v>
       </c>
       <c r="C169" s="30" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D169" s="31">
-        <v>42552.590989386576</v>
+        <v>42552.592038113427</v>
       </c>
       <c r="E169" s="32" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="F169" s="33"/>
       <c r="G169" s="34" t="s">
@@ -6570,11 +6437,11 @@
         <v>1</v>
       </c>
       <c r="I169" s="36">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J169" s="37">
         <f>IF(H169&gt;0,I169/H169," ")</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K169" s="35"/>
       <c r="L169" s="36"/>
@@ -6588,13 +6455,13 @@
         <v>18</v>
       </c>
       <c r="C170" s="30" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D170" s="31">
-        <v>42552.590989386576</v>
+        <v>42552.592038113427</v>
       </c>
       <c r="E170" s="32" t="s">
-        <v>35</v>
+        <v>56</v>
       </c>
       <c r="F170" s="33"/>
       <c r="G170" s="34" t="s">
@@ -6604,11 +6471,11 @@
         <v>1</v>
       </c>
       <c r="I170" s="36">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J170" s="37">
         <f>IF(H170&gt;0,I170/H170," ")</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K170" s="35"/>
       <c r="L170" s="36"/>
@@ -6618,119 +6485,69 @@
       </c>
     </row>
     <row r="171" ht="12.75" customHeight="1">
-      <c r="B171" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C171" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D171" s="31">
-        <v>42552.590989386576</v>
-      </c>
-      <c r="E171" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="F171" s="33"/>
-      <c r="G171" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="H171" s="35">
-        <v>1</v>
-      </c>
-      <c r="I171" s="36">
-        <v>1</v>
-      </c>
-      <c r="J171" s="37">
-        <f>IF(H171&gt;0,I171/H171," ")</f>
-        <v>1</v>
-      </c>
-      <c r="K171" s="35"/>
-      <c r="L171" s="36"/>
-      <c r="M171" s="38" t="str">
-        <f>IF(K171&gt;0,L171/K171," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="B171" s="39"/>
+      <c r="C171" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D171" s="39"/>
+      <c r="E171" s="40"/>
+      <c r="F171" s="40"/>
+      <c r="G171" s="41"/>
+      <c r="H171" s="42"/>
+      <c r="I171" s="42">
+        <f>SUM(I151:I170)</f>
+        <v>20</v>
+      </c>
+      <c r="J171" s="42"/>
+      <c r="K171" s="42"/>
+      <c r="L171" s="42">
+        <f>SUM(L151:L170)</f>
+        <v>0</v>
+      </c>
+      <c r="M171" s="43"/>
     </row>
     <row r="172" ht="12.75" customHeight="1">
-      <c r="B172" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C172" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D172" s="31">
-        <v>42552.590989386576</v>
-      </c>
-      <c r="E172" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="F172" s="33"/>
-      <c r="G172" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="H172" s="35">
-        <v>1</v>
-      </c>
-      <c r="I172" s="36">
-        <v>1</v>
-      </c>
-      <c r="J172" s="37">
-        <f>IF(H172&gt;0,I172/H172," ")</f>
-        <v>1</v>
-      </c>
-      <c r="K172" s="35"/>
-      <c r="L172" s="36"/>
-      <c r="M172" s="38" t="str">
-        <f>IF(K172&gt;0,L172/K172," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="B172" s="23"/>
+      <c r="C172" s="24"/>
+      <c r="D172" s="24"/>
+      <c r="E172" s="24"/>
+      <c r="F172" s="24"/>
+      <c r="G172" s="24"/>
+      <c r="H172" s="24"/>
+      <c r="I172" s="24"/>
+      <c r="J172" s="24"/>
+      <c r="K172" s="24"/>
+      <c r="L172" s="24"/>
+      <c r="M172" s="25"/>
     </row>
     <row r="173" ht="12.75" customHeight="1">
-      <c r="B173" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C173" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D173" s="31">
-        <v>42552.590989386576</v>
-      </c>
-      <c r="E173" s="32" t="s">
-        <v>38</v>
-      </c>
-      <c r="F173" s="33"/>
-      <c r="G173" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="H173" s="35">
-        <v>1</v>
-      </c>
-      <c r="I173" s="36">
-        <v>1</v>
-      </c>
-      <c r="J173" s="37">
-        <f>IF(H173&gt;0,I173/H173," ")</f>
-        <v>1</v>
-      </c>
-      <c r="K173" s="35"/>
-      <c r="L173" s="36"/>
-      <c r="M173" s="38" t="str">
-        <f>IF(K173&gt;0,L173/K173," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="B173" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C173" s="27"/>
+      <c r="D173" s="27"/>
+      <c r="E173" s="27"/>
+      <c r="F173" s="27"/>
+      <c r="G173" s="27"/>
+      <c r="H173" s="27"/>
+      <c r="I173" s="27"/>
+      <c r="J173" s="27"/>
+      <c r="K173" s="27"/>
+      <c r="L173" s="27"/>
+      <c r="M173" s="28"/>
     </row>
     <row r="174" ht="12.75" customHeight="1">
       <c r="B174" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C174" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D174" s="31">
-        <v>42552.590989386576</v>
+        <v>42552.559449803237</v>
       </c>
       <c r="E174" s="32" t="s">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="F174" s="33"/>
       <c r="G174" s="34" t="s">
@@ -6758,13 +6575,13 @@
         <v>18</v>
       </c>
       <c r="C175" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D175" s="31">
-        <v>42552.590989386576</v>
+        <v>42552.559449803237</v>
       </c>
       <c r="E175" s="32" t="s">
-        <v>40</v>
+        <v>59</v>
       </c>
       <c r="F175" s="33"/>
       <c r="G175" s="34" t="s">
@@ -6792,13 +6609,13 @@
         <v>18</v>
       </c>
       <c r="C176" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D176" s="31">
-        <v>42552.590989386576</v>
+        <v>42552.559626932867</v>
       </c>
       <c r="E176" s="32" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
       <c r="F176" s="33"/>
       <c r="G176" s="34" t="s">
@@ -6826,13 +6643,13 @@
         <v>18</v>
       </c>
       <c r="C177" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D177" s="31">
-        <v>42552.590989386576</v>
+        <v>42552.559626932867</v>
       </c>
       <c r="E177" s="32" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="F177" s="33"/>
       <c r="G177" s="34" t="s">
@@ -6860,13 +6677,13 @@
         <v>18</v>
       </c>
       <c r="C178" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D178" s="31">
-        <v>42552.590989386576</v>
+        <v>42552.559449803237</v>
       </c>
       <c r="E178" s="32" t="s">
-        <v>43</v>
+        <v>58</v>
       </c>
       <c r="F178" s="33"/>
       <c r="G178" s="34" t="s">
@@ -6894,13 +6711,13 @@
         <v>18</v>
       </c>
       <c r="C179" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D179" s="31">
-        <v>42552.590989386576</v>
+        <v>42552.559449803237</v>
       </c>
       <c r="E179" s="32" t="s">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="F179" s="33"/>
       <c r="G179" s="34" t="s">
@@ -6928,13 +6745,13 @@
         <v>18</v>
       </c>
       <c r="C180" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D180" s="31">
         <v>42552.590989386576</v>
       </c>
       <c r="E180" s="32" t="s">
-        <v>45</v>
+        <v>58</v>
       </c>
       <c r="F180" s="33"/>
       <c r="G180" s="34" t="s">
@@ -6962,13 +6779,13 @@
         <v>18</v>
       </c>
       <c r="C181" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D181" s="31">
         <v>42552.590989386576</v>
       </c>
       <c r="E181" s="32" t="s">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="F181" s="33"/>
       <c r="G181" s="34" t="s">
@@ -6996,13 +6813,13 @@
         <v>18</v>
       </c>
       <c r="C182" s="30" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D182" s="31">
-        <v>42552.590989386576</v>
+        <v>42552.592038113427</v>
       </c>
       <c r="E182" s="32" t="s">
-        <v>47</v>
+        <v>58</v>
       </c>
       <c r="F182" s="33"/>
       <c r="G182" s="34" t="s">
@@ -7030,13 +6847,13 @@
         <v>18</v>
       </c>
       <c r="C183" s="30" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D183" s="31">
-        <v>42552.590989386576</v>
+        <v>42552.592038113427</v>
       </c>
       <c r="E183" s="32" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="F183" s="33"/>
       <c r="G183" s="34" t="s">
@@ -7060,119 +6877,69 @@
       </c>
     </row>
     <row r="184" ht="12.75" customHeight="1">
-      <c r="B184" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C184" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D184" s="31">
-        <v>42552.590989386576</v>
-      </c>
-      <c r="E184" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="F184" s="33"/>
-      <c r="G184" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="H184" s="35">
-        <v>1</v>
-      </c>
-      <c r="I184" s="36">
-        <v>1</v>
-      </c>
-      <c r="J184" s="37">
-        <f>IF(H184&gt;0,I184/H184," ")</f>
-        <v>1</v>
-      </c>
-      <c r="K184" s="35"/>
-      <c r="L184" s="36"/>
-      <c r="M184" s="38" t="str">
-        <f>IF(K184&gt;0,L184/K184," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="B184" s="39"/>
+      <c r="C184" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D184" s="39"/>
+      <c r="E184" s="40"/>
+      <c r="F184" s="40"/>
+      <c r="G184" s="41"/>
+      <c r="H184" s="42"/>
+      <c r="I184" s="42">
+        <f>SUM(I174:I183)</f>
+        <v>10</v>
+      </c>
+      <c r="J184" s="42"/>
+      <c r="K184" s="42"/>
+      <c r="L184" s="42">
+        <f>SUM(L174:L183)</f>
+        <v>0</v>
+      </c>
+      <c r="M184" s="43"/>
     </row>
     <row r="185" ht="12.75" customHeight="1">
-      <c r="B185" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C185" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D185" s="31">
-        <v>42552.590989386576</v>
-      </c>
-      <c r="E185" s="32" t="s">
-        <v>50</v>
-      </c>
-      <c r="F185" s="33"/>
-      <c r="G185" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="H185" s="35">
-        <v>1</v>
-      </c>
-      <c r="I185" s="36">
-        <v>1</v>
-      </c>
-      <c r="J185" s="37">
-        <f>IF(H185&gt;0,I185/H185," ")</f>
-        <v>1</v>
-      </c>
-      <c r="K185" s="35"/>
-      <c r="L185" s="36"/>
-      <c r="M185" s="38" t="str">
-        <f>IF(K185&gt;0,L185/K185," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="B185" s="23"/>
+      <c r="C185" s="24"/>
+      <c r="D185" s="24"/>
+      <c r="E185" s="24"/>
+      <c r="F185" s="24"/>
+      <c r="G185" s="24"/>
+      <c r="H185" s="24"/>
+      <c r="I185" s="24"/>
+      <c r="J185" s="24"/>
+      <c r="K185" s="24"/>
+      <c r="L185" s="24"/>
+      <c r="M185" s="25"/>
     </row>
     <row r="186" ht="12.75" customHeight="1">
-      <c r="B186" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C186" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D186" s="31">
-        <v>42552.590989386576</v>
-      </c>
-      <c r="E186" s="32" t="s">
-        <v>51</v>
-      </c>
-      <c r="F186" s="33"/>
-      <c r="G186" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="H186" s="35">
-        <v>1</v>
-      </c>
-      <c r="I186" s="36">
-        <v>1</v>
-      </c>
-      <c r="J186" s="37">
-        <f>IF(H186&gt;0,I186/H186," ")</f>
-        <v>1</v>
-      </c>
-      <c r="K186" s="35"/>
-      <c r="L186" s="36"/>
-      <c r="M186" s="38" t="str">
-        <f>IF(K186&gt;0,L186/K186," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="B186" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="C186" s="27"/>
+      <c r="D186" s="27"/>
+      <c r="E186" s="27"/>
+      <c r="F186" s="27"/>
+      <c r="G186" s="27"/>
+      <c r="H186" s="27"/>
+      <c r="I186" s="27"/>
+      <c r="J186" s="27"/>
+      <c r="K186" s="27"/>
+      <c r="L186" s="27"/>
+      <c r="M186" s="28"/>
     </row>
     <row r="187" ht="12.75" customHeight="1">
       <c r="B187" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C187" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D187" s="31">
-        <v>42552.590989386576</v>
+        <v>42552.559449803237</v>
       </c>
       <c r="E187" s="32" t="s">
-        <v>52</v>
+        <v>61</v>
       </c>
       <c r="F187" s="33"/>
       <c r="G187" s="34" t="s">
@@ -7200,13 +6967,13 @@
         <v>18</v>
       </c>
       <c r="C188" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D188" s="31">
-        <v>42552.590989386576</v>
+        <v>42552.559449803237</v>
       </c>
       <c r="E188" s="32" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="F188" s="33"/>
       <c r="G188" s="34" t="s">
@@ -7234,13 +7001,13 @@
         <v>18</v>
       </c>
       <c r="C189" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D189" s="31">
-        <v>42552.590989386576</v>
+        <v>42552.559449803237</v>
       </c>
       <c r="E189" s="32" t="s">
-        <v>54</v>
+        <v>63</v>
       </c>
       <c r="F189" s="33"/>
       <c r="G189" s="34" t="s">
@@ -7268,13 +7035,13 @@
         <v>18</v>
       </c>
       <c r="C190" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D190" s="31">
-        <v>42552.590989386576</v>
+        <v>42552.559626932867</v>
       </c>
       <c r="E190" s="32" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="F190" s="33"/>
       <c r="G190" s="34" t="s">
@@ -7302,13 +7069,13 @@
         <v>18</v>
       </c>
       <c r="C191" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D191" s="31">
-        <v>42552.590989386576</v>
+        <v>42552.559626932867</v>
       </c>
       <c r="E191" s="32" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="F191" s="33"/>
       <c r="G191" s="34" t="s">
@@ -7336,13 +7103,13 @@
         <v>18</v>
       </c>
       <c r="C192" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D192" s="31">
-        <v>42552.590989386576</v>
+        <v>42552.559626932867</v>
       </c>
       <c r="E192" s="32" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="F192" s="33"/>
       <c r="G192" s="34" t="s">
@@ -7370,13 +7137,13 @@
         <v>18</v>
       </c>
       <c r="C193" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D193" s="31">
-        <v>42552.590989386576</v>
+        <v>42552.559449803237</v>
       </c>
       <c r="E193" s="32" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="F193" s="33"/>
       <c r="G193" s="34" t="s">
@@ -7386,11 +7153,11 @@
         <v>1</v>
       </c>
       <c r="I193" s="36">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J193" s="37">
         <f>IF(H193&gt;0,I193/H193," ")</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="K193" s="35"/>
       <c r="L193" s="36"/>
@@ -7404,13 +7171,13 @@
         <v>18</v>
       </c>
       <c r="C194" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D194" s="31">
-        <v>42552.590989386576</v>
+        <v>42552.559449803237</v>
       </c>
       <c r="E194" s="32" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="F194" s="33"/>
       <c r="G194" s="34" t="s">
@@ -7438,13 +7205,13 @@
         <v>18</v>
       </c>
       <c r="C195" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D195" s="31">
-        <v>42552.590989386576</v>
+        <v>42552.559449803237</v>
       </c>
       <c r="E195" s="32" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="F195" s="33"/>
       <c r="G195" s="34" t="s">
@@ -7472,7 +7239,7 @@
         <v>18</v>
       </c>
       <c r="C196" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D196" s="31">
         <v>42552.590989386576</v>
@@ -7506,7 +7273,7 @@
         <v>18</v>
       </c>
       <c r="C197" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D197" s="31">
         <v>42552.590989386576</v>
@@ -7540,7 +7307,7 @@
         <v>18</v>
       </c>
       <c r="C198" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D198" s="31">
         <v>42552.590989386576</v>
@@ -7574,13 +7341,13 @@
         <v>18</v>
       </c>
       <c r="C199" s="30" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D199" s="31">
-        <v>42552.590989386576</v>
+        <v>42552.592038113427</v>
       </c>
       <c r="E199" s="32" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F199" s="33"/>
       <c r="G199" s="34" t="s">
@@ -7608,13 +7375,13 @@
         <v>18</v>
       </c>
       <c r="C200" s="30" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D200" s="31">
-        <v>42552.590989386576</v>
+        <v>42552.592038113427</v>
       </c>
       <c r="E200" s="32" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F200" s="33"/>
       <c r="G200" s="34" t="s">
@@ -7642,13 +7409,13 @@
         <v>18</v>
       </c>
       <c r="C201" s="30" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="D201" s="31">
-        <v>42552.590989386576</v>
+        <v>42552.592038113427</v>
       </c>
       <c r="E201" s="32" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F201" s="33"/>
       <c r="G201" s="34" t="s">
@@ -7672,119 +7439,69 @@
       </c>
     </row>
     <row r="202" ht="12.75" customHeight="1">
-      <c r="B202" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C202" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D202" s="31">
-        <v>42552.590989386576</v>
-      </c>
-      <c r="E202" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="F202" s="33"/>
-      <c r="G202" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="H202" s="35">
-        <v>1</v>
-      </c>
-      <c r="I202" s="36">
-        <v>1</v>
-      </c>
-      <c r="J202" s="37">
-        <f>IF(H202&gt;0,I202/H202," ")</f>
-        <v>1</v>
-      </c>
-      <c r="K202" s="35"/>
-      <c r="L202" s="36"/>
-      <c r="M202" s="38" t="str">
-        <f>IF(K202&gt;0,L202/K202," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="B202" s="39"/>
+      <c r="C202" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D202" s="39"/>
+      <c r="E202" s="40"/>
+      <c r="F202" s="40"/>
+      <c r="G202" s="41"/>
+      <c r="H202" s="42"/>
+      <c r="I202" s="42">
+        <f>SUM(I187:I201)</f>
+        <v>15</v>
+      </c>
+      <c r="J202" s="42"/>
+      <c r="K202" s="42"/>
+      <c r="L202" s="42">
+        <f>SUM(L187:L201)</f>
+        <v>0</v>
+      </c>
+      <c r="M202" s="43"/>
     </row>
     <row r="203" ht="12.75" customHeight="1">
-      <c r="B203" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C203" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D203" s="31">
-        <v>42552.590989386576</v>
-      </c>
-      <c r="E203" s="32" t="s">
-        <v>68</v>
-      </c>
-      <c r="F203" s="33"/>
-      <c r="G203" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="H203" s="35">
-        <v>1</v>
-      </c>
-      <c r="I203" s="36">
-        <v>1</v>
-      </c>
-      <c r="J203" s="37">
-        <f>IF(H203&gt;0,I203/H203," ")</f>
-        <v>1</v>
-      </c>
-      <c r="K203" s="35"/>
-      <c r="L203" s="36"/>
-      <c r="M203" s="38" t="str">
-        <f>IF(K203&gt;0,L203/K203," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="B203" s="23"/>
+      <c r="C203" s="24"/>
+      <c r="D203" s="24"/>
+      <c r="E203" s="24"/>
+      <c r="F203" s="24"/>
+      <c r="G203" s="24"/>
+      <c r="H203" s="24"/>
+      <c r="I203" s="24"/>
+      <c r="J203" s="24"/>
+      <c r="K203" s="24"/>
+      <c r="L203" s="24"/>
+      <c r="M203" s="25"/>
     </row>
     <row r="204" ht="12.75" customHeight="1">
-      <c r="B204" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C204" s="30" t="s">
-        <v>30</v>
-      </c>
-      <c r="D204" s="31">
-        <v>42552.590989386576</v>
-      </c>
-      <c r="E204" s="32" t="s">
-        <v>69</v>
-      </c>
-      <c r="F204" s="33"/>
-      <c r="G204" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="H204" s="35">
-        <v>1</v>
-      </c>
-      <c r="I204" s="36">
-        <v>1</v>
-      </c>
-      <c r="J204" s="37">
-        <f>IF(H204&gt;0,I204/H204," ")</f>
-        <v>1</v>
-      </c>
-      <c r="K204" s="35"/>
-      <c r="L204" s="36"/>
-      <c r="M204" s="38" t="str">
-        <f>IF(K204&gt;0,L204/K204," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="B204" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C204" s="27"/>
+      <c r="D204" s="27"/>
+      <c r="E204" s="27"/>
+      <c r="F204" s="27"/>
+      <c r="G204" s="27"/>
+      <c r="H204" s="27"/>
+      <c r="I204" s="27"/>
+      <c r="J204" s="27"/>
+      <c r="K204" s="27"/>
+      <c r="L204" s="27"/>
+      <c r="M204" s="28"/>
     </row>
     <row r="205" ht="12.75" customHeight="1">
       <c r="B205" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C205" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D205" s="31">
-        <v>42552.590989386576</v>
+        <v>42552.559449803237</v>
       </c>
       <c r="E205" s="32" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="F205" s="33"/>
       <c r="G205" s="34" t="s">
@@ -7812,13 +7529,13 @@
         <v>18</v>
       </c>
       <c r="C206" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D206" s="31">
-        <v>42552.590989386576</v>
+        <v>42552.559449803237</v>
       </c>
       <c r="E206" s="32" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="F206" s="33"/>
       <c r="G206" s="34" t="s">
@@ -7828,11 +7545,11 @@
         <v>1</v>
       </c>
       <c r="I206" s="36">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J206" s="37">
         <f>IF(H206&gt;0,I206/H206," ")</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="K206" s="35"/>
       <c r="L206" s="36"/>
@@ -7846,13 +7563,13 @@
         <v>18</v>
       </c>
       <c r="C207" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D207" s="31">
-        <v>42552.590989386576</v>
+        <v>42552.559449803237</v>
       </c>
       <c r="E207" s="32" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="F207" s="33"/>
       <c r="G207" s="34" t="s">
@@ -7880,13 +7597,13 @@
         <v>18</v>
       </c>
       <c r="C208" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D208" s="31">
-        <v>42552.590989386576</v>
+        <v>42552.559449803237</v>
       </c>
       <c r="E208" s="32" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="F208" s="33"/>
       <c r="G208" s="34" t="s">
@@ -7914,13 +7631,13 @@
         <v>18</v>
       </c>
       <c r="C209" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D209" s="31">
-        <v>42552.590989386576</v>
+        <v>42552.559449803237</v>
       </c>
       <c r="E209" s="32" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="F209" s="33"/>
       <c r="G209" s="34" t="s">
@@ -7948,13 +7665,13 @@
         <v>18</v>
       </c>
       <c r="C210" s="30" t="s">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="D210" s="31">
-        <v>42552.590989386576</v>
+        <v>42552.559449803237</v>
       </c>
       <c r="E210" s="32" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F210" s="33"/>
       <c r="G210" s="34" t="s">
@@ -7982,13 +7699,13 @@
         <v>18</v>
       </c>
       <c r="C211" s="30" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="D211" s="31">
-        <v>42552.592038113427</v>
+        <v>42552.559626932867</v>
       </c>
       <c r="E211" s="32" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="F211" s="33"/>
       <c r="G211" s="34" t="s">
@@ -8016,13 +7733,13 @@
         <v>18</v>
       </c>
       <c r="C212" s="30" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="D212" s="31">
-        <v>42552.592038113427</v>
+        <v>42552.559626932867</v>
       </c>
       <c r="E212" s="32" t="s">
-        <v>31</v>
+        <v>66</v>
       </c>
       <c r="F212" s="33"/>
       <c r="G212" s="34" t="s">
@@ -8032,11 +7749,11 @@
         <v>1</v>
       </c>
       <c r="I212" s="36">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="J212" s="37">
         <f>IF(H212&gt;0,I212/H212," ")</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="K212" s="35"/>
       <c r="L212" s="36"/>
@@ -8050,13 +7767,13 @@
         <v>18</v>
       </c>
       <c r="C213" s="30" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="D213" s="31">
-        <v>42552.592038113427</v>
+        <v>42552.559626932867</v>
       </c>
       <c r="E213" s="32" t="s">
-        <v>32</v>
+        <v>67</v>
       </c>
       <c r="F213" s="33"/>
       <c r="G213" s="34" t="s">
@@ -8084,13 +7801,13 @@
         <v>18</v>
       </c>
       <c r="C214" s="30" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="D214" s="31">
-        <v>42552.592038113427</v>
+        <v>42552.559626932867</v>
       </c>
       <c r="E214" s="32" t="s">
-        <v>33</v>
+        <v>68</v>
       </c>
       <c r="F214" s="33"/>
       <c r="G214" s="34" t="s">
@@ -8100,11 +7817,11 @@
         <v>1</v>
       </c>
       <c r="I214" s="36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J214" s="37">
         <f>IF(H214&gt;0,I214/H214," ")</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K214" s="35"/>
       <c r="L214" s="36"/>
@@ -8118,13 +7835,13 @@
         <v>18</v>
       </c>
       <c r="C215" s="30" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="D215" s="31">
-        <v>42552.592038113427</v>
+        <v>42552.559626932867</v>
       </c>
       <c r="E215" s="32" t="s">
-        <v>34</v>
+        <v>69</v>
       </c>
       <c r="F215" s="33"/>
       <c r="G215" s="34" t="s">
@@ -8134,11 +7851,11 @@
         <v>1</v>
       </c>
       <c r="I215" s="36">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J215" s="37">
         <f>IF(H215&gt;0,I215/H215," ")</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K215" s="35"/>
       <c r="L215" s="36"/>
@@ -8152,13 +7869,13 @@
         <v>18</v>
       </c>
       <c r="C216" s="30" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="D216" s="31">
-        <v>42552.592038113427</v>
+        <v>42552.559626932867</v>
       </c>
       <c r="E216" s="32" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="F216" s="33"/>
       <c r="G216" s="34" t="s">
@@ -8168,11 +7885,11 @@
         <v>1</v>
       </c>
       <c r="I216" s="36">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="J216" s="37">
         <f>IF(H216&gt;0,I216/H216," ")</f>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="K216" s="35"/>
       <c r="L216" s="36"/>
@@ -8186,13 +7903,13 @@
         <v>18</v>
       </c>
       <c r="C217" s="30" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="D217" s="31">
-        <v>42552.592038113427</v>
+        <v>42552.559449803237</v>
       </c>
       <c r="E217" s="32" t="s">
-        <v>36</v>
+        <v>65</v>
       </c>
       <c r="F217" s="33"/>
       <c r="G217" s="34" t="s">
@@ -8220,13 +7937,13 @@
         <v>18</v>
       </c>
       <c r="C218" s="30" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="D218" s="31">
-        <v>42552.592038113427</v>
+        <v>42552.559449803237</v>
       </c>
       <c r="E218" s="32" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="F218" s="33"/>
       <c r="G218" s="34" t="s">
@@ -8236,11 +7953,11 @@
         <v>1</v>
       </c>
       <c r="I218" s="36">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J218" s="37">
         <f>IF(H218&gt;0,I218/H218," ")</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="K218" s="35"/>
       <c r="L218" s="36"/>
@@ -8254,13 +7971,13 @@
         <v>18</v>
       </c>
       <c r="C219" s="30" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="D219" s="31">
-        <v>42552.592038113427</v>
+        <v>42552.559449803237</v>
       </c>
       <c r="E219" s="32" t="s">
-        <v>38</v>
+        <v>67</v>
       </c>
       <c r="F219" s="33"/>
       <c r="G219" s="34" t="s">
@@ -8288,13 +8005,13 @@
         <v>18</v>
       </c>
       <c r="C220" s="30" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="D220" s="31">
-        <v>42552.592038113427</v>
+        <v>42552.559449803237</v>
       </c>
       <c r="E220" s="32" t="s">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="F220" s="33"/>
       <c r="G220" s="34" t="s">
@@ -8322,13 +8039,13 @@
         <v>18</v>
       </c>
       <c r="C221" s="30" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="D221" s="31">
-        <v>42552.592038113427</v>
+        <v>42552.559449803237</v>
       </c>
       <c r="E221" s="32" t="s">
-        <v>40</v>
+        <v>69</v>
       </c>
       <c r="F221" s="33"/>
       <c r="G221" s="34" t="s">
@@ -8356,13 +8073,13 @@
         <v>18</v>
       </c>
       <c r="C222" s="30" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="D222" s="31">
-        <v>42552.592038113427</v>
+        <v>42552.559449803237</v>
       </c>
       <c r="E222" s="32" t="s">
-        <v>41</v>
+        <v>70</v>
       </c>
       <c r="F222" s="33"/>
       <c r="G222" s="34" t="s">
@@ -8390,13 +8107,13 @@
         <v>18</v>
       </c>
       <c r="C223" s="30" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="D223" s="31">
-        <v>42552.592038113427</v>
+        <v>42552.590989386576</v>
       </c>
       <c r="E223" s="32" t="s">
-        <v>42</v>
+        <v>65</v>
       </c>
       <c r="F223" s="33"/>
       <c r="G223" s="34" t="s">
@@ -8424,13 +8141,13 @@
         <v>18</v>
       </c>
       <c r="C224" s="30" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="D224" s="31">
-        <v>42552.592038113427</v>
+        <v>42552.590989386576</v>
       </c>
       <c r="E224" s="32" t="s">
-        <v>43</v>
+        <v>66</v>
       </c>
       <c r="F224" s="33"/>
       <c r="G224" s="34" t="s">
@@ -8440,11 +8157,11 @@
         <v>1</v>
       </c>
       <c r="I224" s="36">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J224" s="37">
         <f>IF(H224&gt;0,I224/H224," ")</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="K224" s="35"/>
       <c r="L224" s="36"/>
@@ -8458,13 +8175,13 @@
         <v>18</v>
       </c>
       <c r="C225" s="30" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="D225" s="31">
-        <v>42552.592038113427</v>
+        <v>42552.590989386576</v>
       </c>
       <c r="E225" s="32" t="s">
-        <v>44</v>
+        <v>67</v>
       </c>
       <c r="F225" s="33"/>
       <c r="G225" s="34" t="s">
@@ -8492,13 +8209,13 @@
         <v>18</v>
       </c>
       <c r="C226" s="30" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="D226" s="31">
-        <v>42552.592038113427</v>
+        <v>42552.590989386576</v>
       </c>
       <c r="E226" s="32" t="s">
-        <v>45</v>
+        <v>68</v>
       </c>
       <c r="F226" s="33"/>
       <c r="G226" s="34" t="s">
@@ -8526,13 +8243,13 @@
         <v>18</v>
       </c>
       <c r="C227" s="30" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="D227" s="31">
-        <v>42552.592038113427</v>
+        <v>42552.590989386576</v>
       </c>
       <c r="E227" s="32" t="s">
-        <v>46</v>
+        <v>69</v>
       </c>
       <c r="F227" s="33"/>
       <c r="G227" s="34" t="s">
@@ -8560,13 +8277,13 @@
         <v>18</v>
       </c>
       <c r="C228" s="30" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="D228" s="31">
-        <v>42552.592038113427</v>
+        <v>42552.590989386576</v>
       </c>
       <c r="E228" s="32" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="F228" s="33"/>
       <c r="G228" s="34" t="s">
@@ -8594,13 +8311,13 @@
         <v>18</v>
       </c>
       <c r="C229" s="30" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="D229" s="31">
         <v>42552.592038113427</v>
       </c>
       <c r="E229" s="32" t="s">
-        <v>48</v>
+        <v>65</v>
       </c>
       <c r="F229" s="33"/>
       <c r="G229" s="34" t="s">
@@ -8628,13 +8345,13 @@
         <v>18</v>
       </c>
       <c r="C230" s="30" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="D230" s="31">
         <v>42552.592038113427</v>
       </c>
       <c r="E230" s="32" t="s">
-        <v>49</v>
+        <v>66</v>
       </c>
       <c r="F230" s="33"/>
       <c r="G230" s="34" t="s">
@@ -8644,11 +8361,11 @@
         <v>1</v>
       </c>
       <c r="I230" s="36">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="J230" s="37">
         <f>IF(H230&gt;0,I230/H230," ")</f>
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="K230" s="35"/>
       <c r="L230" s="36"/>
@@ -8662,13 +8379,13 @@
         <v>18</v>
       </c>
       <c r="C231" s="30" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="D231" s="31">
         <v>42552.592038113427</v>
       </c>
       <c r="E231" s="32" t="s">
-        <v>50</v>
+        <v>67</v>
       </c>
       <c r="F231" s="33"/>
       <c r="G231" s="34" t="s">
@@ -8696,13 +8413,13 @@
         <v>18</v>
       </c>
       <c r="C232" s="30" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="D232" s="31">
         <v>42552.592038113427</v>
       </c>
       <c r="E232" s="32" t="s">
-        <v>51</v>
+        <v>68</v>
       </c>
       <c r="F232" s="33"/>
       <c r="G232" s="34" t="s">
@@ -8730,13 +8447,13 @@
         <v>18</v>
       </c>
       <c r="C233" s="30" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="D233" s="31">
         <v>42552.592038113427</v>
       </c>
       <c r="E233" s="32" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="F233" s="33"/>
       <c r="G233" s="34" t="s">
@@ -8764,13 +8481,13 @@
         <v>18</v>
       </c>
       <c r="C234" s="30" t="s">
-        <v>76</v>
+        <v>24</v>
       </c>
       <c r="D234" s="31">
         <v>42552.592038113427</v>
       </c>
       <c r="E234" s="32" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="F234" s="33"/>
       <c r="G234" s="34" t="s">
@@ -8794,119 +8511,69 @@
       </c>
     </row>
     <row r="235" ht="12.75" customHeight="1">
-      <c r="B235" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C235" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="D235" s="31">
-        <v>42552.592038113427</v>
-      </c>
-      <c r="E235" s="32" t="s">
-        <v>54</v>
-      </c>
-      <c r="F235" s="33"/>
-      <c r="G235" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="H235" s="35">
-        <v>1</v>
-      </c>
-      <c r="I235" s="36">
-        <v>1</v>
-      </c>
-      <c r="J235" s="37">
-        <f>IF(H235&gt;0,I235/H235," ")</f>
-        <v>1</v>
-      </c>
-      <c r="K235" s="35"/>
-      <c r="L235" s="36"/>
-      <c r="M235" s="38" t="str">
-        <f>IF(K235&gt;0,L235/K235," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="B235" s="39"/>
+      <c r="C235" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D235" s="39"/>
+      <c r="E235" s="40"/>
+      <c r="F235" s="40"/>
+      <c r="G235" s="41"/>
+      <c r="H235" s="42"/>
+      <c r="I235" s="42">
+        <f>SUM(I205:I234)</f>
+        <v>80</v>
+      </c>
+      <c r="J235" s="42"/>
+      <c r="K235" s="42"/>
+      <c r="L235" s="42">
+        <f>SUM(L205:L234)</f>
+        <v>0</v>
+      </c>
+      <c r="M235" s="43"/>
     </row>
     <row r="236" ht="12.75" customHeight="1">
-      <c r="B236" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C236" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="D236" s="31">
-        <v>42552.592038113427</v>
-      </c>
-      <c r="E236" s="32" t="s">
-        <v>55</v>
-      </c>
-      <c r="F236" s="33"/>
-      <c r="G236" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="H236" s="35">
-        <v>1</v>
-      </c>
-      <c r="I236" s="36">
-        <v>1</v>
-      </c>
-      <c r="J236" s="37">
-        <f>IF(H236&gt;0,I236/H236," ")</f>
-        <v>1</v>
-      </c>
-      <c r="K236" s="35"/>
-      <c r="L236" s="36"/>
-      <c r="M236" s="38" t="str">
-        <f>IF(K236&gt;0,L236/K236," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="B236" s="23"/>
+      <c r="C236" s="24"/>
+      <c r="D236" s="24"/>
+      <c r="E236" s="24"/>
+      <c r="F236" s="24"/>
+      <c r="G236" s="24"/>
+      <c r="H236" s="24"/>
+      <c r="I236" s="24"/>
+      <c r="J236" s="24"/>
+      <c r="K236" s="24"/>
+      <c r="L236" s="24"/>
+      <c r="M236" s="25"/>
     </row>
     <row r="237" ht="12.75" customHeight="1">
-      <c r="B237" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="C237" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="D237" s="31">
-        <v>42552.592038113427</v>
-      </c>
-      <c r="E237" s="32" t="s">
-        <v>56</v>
-      </c>
-      <c r="F237" s="33"/>
-      <c r="G237" s="34" t="s">
-        <v>21</v>
-      </c>
-      <c r="H237" s="35">
-        <v>1</v>
-      </c>
-      <c r="I237" s="36">
-        <v>1</v>
-      </c>
-      <c r="J237" s="37">
-        <f>IF(H237&gt;0,I237/H237," ")</f>
-        <v>1</v>
-      </c>
-      <c r="K237" s="35"/>
-      <c r="L237" s="36"/>
-      <c r="M237" s="38" t="str">
-        <f>IF(K237&gt;0,L237/K237," ")</f>
-        <v xml:space="preserve"> </v>
-      </c>
+      <c r="B237" s="26" t="s">
+        <v>71</v>
+      </c>
+      <c r="C237" s="27"/>
+      <c r="D237" s="27"/>
+      <c r="E237" s="27"/>
+      <c r="F237" s="27"/>
+      <c r="G237" s="27"/>
+      <c r="H237" s="27"/>
+      <c r="I237" s="27"/>
+      <c r="J237" s="27"/>
+      <c r="K237" s="27"/>
+      <c r="L237" s="27"/>
+      <c r="M237" s="28"/>
     </row>
     <row r="238" ht="12.75" customHeight="1">
       <c r="B238" s="29" t="s">
         <v>18</v>
       </c>
       <c r="C238" s="30" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="D238" s="31">
-        <v>42552.592038113427</v>
+        <v>42552.559449803237</v>
       </c>
       <c r="E238" s="32" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="F238" s="33"/>
       <c r="G238" s="34" t="s">
@@ -8934,13 +8601,13 @@
         <v>18</v>
       </c>
       <c r="C239" s="30" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="D239" s="31">
-        <v>42552.592038113427</v>
+        <v>42552.559449803237</v>
       </c>
       <c r="E239" s="32" t="s">
-        <v>58</v>
+        <v>73</v>
       </c>
       <c r="F239" s="33"/>
       <c r="G239" s="34" t="s">
@@ -8950,11 +8617,11 @@
         <v>1</v>
       </c>
       <c r="I239" s="36">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="J239" s="37">
         <f>IF(H239&gt;0,I239/H239," ")</f>
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="K239" s="35"/>
       <c r="L239" s="36"/>
@@ -8968,13 +8635,13 @@
         <v>18</v>
       </c>
       <c r="C240" s="30" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="D240" s="31">
-        <v>42552.592038113427</v>
+        <v>42552.559449803237</v>
       </c>
       <c r="E240" s="32" t="s">
-        <v>59</v>
+        <v>74</v>
       </c>
       <c r="F240" s="33"/>
       <c r="G240" s="34" t="s">
@@ -9002,13 +8669,13 @@
         <v>18</v>
       </c>
       <c r="C241" s="30" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="D241" s="31">
-        <v>42552.592038113427</v>
+        <v>42552.559449803237</v>
       </c>
       <c r="E241" s="32" t="s">
-        <v>60</v>
+        <v>75</v>
       </c>
       <c r="F241" s="33"/>
       <c r="G241" s="34" t="s">
@@ -9036,13 +8703,13 @@
         <v>18</v>
       </c>
       <c r="C242" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D242" s="31">
+        <v>42552.559449803237</v>
+      </c>
+      <c r="E242" s="32" t="s">
         <v>76</v>
-      </c>
-      <c r="D242" s="31">
-        <v>42552.592038113427</v>
-      </c>
-      <c r="E242" s="32" t="s">
-        <v>61</v>
       </c>
       <c r="F242" s="33"/>
       <c r="G242" s="34" t="s">
@@ -9070,13 +8737,13 @@
         <v>18</v>
       </c>
       <c r="C243" s="30" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="D243" s="31">
-        <v>42552.592038113427</v>
+        <v>42552.559449803237</v>
       </c>
       <c r="E243" s="32" t="s">
-        <v>62</v>
+        <v>77</v>
       </c>
       <c r="F243" s="33"/>
       <c r="G243" s="34" t="s">
@@ -9104,13 +8771,13 @@
         <v>18</v>
       </c>
       <c r="C244" s="30" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="D244" s="31">
-        <v>42552.592038113427</v>
+        <v>42552.559449803237</v>
       </c>
       <c r="E244" s="32" t="s">
-        <v>63</v>
+        <v>78</v>
       </c>
       <c r="F244" s="33"/>
       <c r="G244" s="34" t="s">
@@ -9138,13 +8805,13 @@
         <v>18</v>
       </c>
       <c r="C245" s="30" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="D245" s="31">
-        <v>42552.592038113427</v>
+        <v>42552.559626932867</v>
       </c>
       <c r="E245" s="32" t="s">
-        <v>64</v>
+        <v>72</v>
       </c>
       <c r="F245" s="33"/>
       <c r="G245" s="34" t="s">
@@ -9172,13 +8839,13 @@
         <v>18</v>
       </c>
       <c r="C246" s="30" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="D246" s="31">
-        <v>42552.592038113427</v>
+        <v>42552.559626932867</v>
       </c>
       <c r="E246" s="32" t="s">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="F246" s="33"/>
       <c r="G246" s="34" t="s">
@@ -9206,13 +8873,13 @@
         <v>18</v>
       </c>
       <c r="C247" s="30" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="D247" s="31">
-        <v>42552.592038113427</v>
+        <v>42552.559626932867</v>
       </c>
       <c r="E247" s="32" t="s">
-        <v>66</v>
+        <v>74</v>
       </c>
       <c r="F247" s="33"/>
       <c r="G247" s="34" t="s">
@@ -9240,13 +8907,13 @@
         <v>18</v>
       </c>
       <c r="C248" s="30" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="D248" s="31">
-        <v>42552.592038113427</v>
+        <v>42552.559626932867</v>
       </c>
       <c r="E248" s="32" t="s">
-        <v>67</v>
+        <v>75</v>
       </c>
       <c r="F248" s="33"/>
       <c r="G248" s="34" t="s">
@@ -9274,13 +8941,13 @@
         <v>18</v>
       </c>
       <c r="C249" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D249" s="31">
+        <v>42552.559626932867</v>
+      </c>
+      <c r="E249" s="32" t="s">
         <v>76</v>
-      </c>
-      <c r="D249" s="31">
-        <v>42552.592038113427</v>
-      </c>
-      <c r="E249" s="32" t="s">
-        <v>68</v>
       </c>
       <c r="F249" s="33"/>
       <c r="G249" s="34" t="s">
@@ -9308,13 +8975,13 @@
         <v>18</v>
       </c>
       <c r="C250" s="30" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="D250" s="31">
-        <v>42552.592038113427</v>
+        <v>42552.559626932867</v>
       </c>
       <c r="E250" s="32" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="F250" s="33"/>
       <c r="G250" s="34" t="s">
@@ -9342,13 +9009,13 @@
         <v>18</v>
       </c>
       <c r="C251" s="30" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="D251" s="31">
-        <v>42552.592038113427</v>
+        <v>42552.559626932867</v>
       </c>
       <c r="E251" s="32" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="F251" s="33"/>
       <c r="G251" s="34" t="s">
@@ -9376,13 +9043,13 @@
         <v>18</v>
       </c>
       <c r="C252" s="30" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="D252" s="31">
-        <v>42552.592038113427</v>
+        <v>42552.559449803237</v>
       </c>
       <c r="E252" s="32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F252" s="33"/>
       <c r="G252" s="34" t="s">
@@ -9410,13 +9077,13 @@
         <v>18</v>
       </c>
       <c r="C253" s="30" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="D253" s="31">
-        <v>42552.592038113427</v>
+        <v>42552.559449803237</v>
       </c>
       <c r="E253" s="32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F253" s="33"/>
       <c r="G253" s="34" t="s">
@@ -9444,13 +9111,13 @@
         <v>18</v>
       </c>
       <c r="C254" s="30" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="D254" s="31">
-        <v>42552.592038113427</v>
+        <v>42552.559449803237</v>
       </c>
       <c r="E254" s="32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F254" s="33"/>
       <c r="G254" s="34" t="s">
@@ -9478,13 +9145,13 @@
         <v>18</v>
       </c>
       <c r="C255" s="30" t="s">
-        <v>76</v>
+        <v>19</v>
       </c>
       <c r="D255" s="31">
-        <v>42552.592038113427</v>
+        <v>42552.559449803237</v>
       </c>
       <c r="E255" s="32" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F255" s="33"/>
       <c r="G255" s="34" t="s">
@@ -9512,13 +9179,13 @@
         <v>18</v>
       </c>
       <c r="C256" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D256" s="31">
+        <v>42552.559449803237</v>
+      </c>
+      <c r="E256" s="32" t="s">
         <v>76</v>
-      </c>
-      <c r="D256" s="31">
-        <v>42552.592038113427</v>
-      </c>
-      <c r="E256" s="32" t="s">
-        <v>75</v>
       </c>
       <c r="F256" s="33"/>
       <c r="G256" s="34" t="s">
@@ -9542,156 +9209,865 @@
       </c>
     </row>
     <row r="257" ht="12.75" customHeight="1">
-      <c r="B257" s="39"/>
-      <c r="C257" s="39" t="s">
-        <v>22</v>
-      </c>
-      <c r="D257" s="39"/>
-      <c r="E257" s="40"/>
-      <c r="F257" s="40"/>
-      <c r="G257" s="41"/>
-      <c r="H257" s="42"/>
-      <c r="I257" s="42">
-        <f>SUM(I27:I256)</f>
-        <v>414</v>
-      </c>
-      <c r="J257" s="42"/>
-      <c r="K257" s="42"/>
-      <c r="L257" s="42">
-        <f>SUM(L27:L256)</f>
+      <c r="B257" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C257" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D257" s="31">
+        <v>42552.559449803237</v>
+      </c>
+      <c r="E257" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="F257" s="33"/>
+      <c r="G257" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H257" s="35">
+        <v>1</v>
+      </c>
+      <c r="I257" s="36">
+        <v>1</v>
+      </c>
+      <c r="J257" s="37">
+        <f>IF(H257&gt;0,I257/H257," ")</f>
+        <v>1</v>
+      </c>
+      <c r="K257" s="35"/>
+      <c r="L257" s="36"/>
+      <c r="M257" s="38" t="str">
+        <f>IF(K257&gt;0,L257/K257," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="258" ht="12.75" customHeight="1">
+      <c r="B258" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C258" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D258" s="31">
+        <v>42552.559449803237</v>
+      </c>
+      <c r="E258" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="F258" s="33"/>
+      <c r="G258" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H258" s="35">
+        <v>1</v>
+      </c>
+      <c r="I258" s="36">
+        <v>1</v>
+      </c>
+      <c r="J258" s="37">
+        <f>IF(H258&gt;0,I258/H258," ")</f>
+        <v>1</v>
+      </c>
+      <c r="K258" s="35"/>
+      <c r="L258" s="36"/>
+      <c r="M258" s="38" t="str">
+        <f>IF(K258&gt;0,L258/K258," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="259" ht="12.75" customHeight="1">
+      <c r="B259" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C259" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D259" s="31">
+        <v>42552.590989386576</v>
+      </c>
+      <c r="E259" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="F259" s="33"/>
+      <c r="G259" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H259" s="35">
+        <v>1</v>
+      </c>
+      <c r="I259" s="36">
+        <v>1</v>
+      </c>
+      <c r="J259" s="37">
+        <f>IF(H259&gt;0,I259/H259," ")</f>
+        <v>1</v>
+      </c>
+      <c r="K259" s="35"/>
+      <c r="L259" s="36"/>
+      <c r="M259" s="38" t="str">
+        <f>IF(K259&gt;0,L259/K259," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="260" ht="12.75" customHeight="1">
+      <c r="B260" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C260" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D260" s="31">
+        <v>42552.590989386576</v>
+      </c>
+      <c r="E260" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F260" s="33"/>
+      <c r="G260" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H260" s="35">
+        <v>1</v>
+      </c>
+      <c r="I260" s="36">
+        <v>1</v>
+      </c>
+      <c r="J260" s="37">
+        <f>IF(H260&gt;0,I260/H260," ")</f>
+        <v>1</v>
+      </c>
+      <c r="K260" s="35"/>
+      <c r="L260" s="36"/>
+      <c r="M260" s="38" t="str">
+        <f>IF(K260&gt;0,L260/K260," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="261" ht="12.75" customHeight="1">
+      <c r="B261" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C261" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D261" s="31">
+        <v>42552.590989386576</v>
+      </c>
+      <c r="E261" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="F261" s="33"/>
+      <c r="G261" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H261" s="35">
+        <v>1</v>
+      </c>
+      <c r="I261" s="36">
+        <v>1</v>
+      </c>
+      <c r="J261" s="37">
+        <f>IF(H261&gt;0,I261/H261," ")</f>
+        <v>1</v>
+      </c>
+      <c r="K261" s="35"/>
+      <c r="L261" s="36"/>
+      <c r="M261" s="38" t="str">
+        <f>IF(K261&gt;0,L261/K261," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="262" ht="12.75" customHeight="1">
+      <c r="B262" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C262" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D262" s="31">
+        <v>42552.590989386576</v>
+      </c>
+      <c r="E262" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="F262" s="33"/>
+      <c r="G262" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H262" s="35">
+        <v>1</v>
+      </c>
+      <c r="I262" s="36">
+        <v>1</v>
+      </c>
+      <c r="J262" s="37">
+        <f>IF(H262&gt;0,I262/H262," ")</f>
+        <v>1</v>
+      </c>
+      <c r="K262" s="35"/>
+      <c r="L262" s="36"/>
+      <c r="M262" s="38" t="str">
+        <f>IF(K262&gt;0,L262/K262," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="263" ht="12.75" customHeight="1">
+      <c r="B263" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C263" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D263" s="31">
+        <v>42552.590989386576</v>
+      </c>
+      <c r="E263" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="F263" s="33"/>
+      <c r="G263" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H263" s="35">
+        <v>1</v>
+      </c>
+      <c r="I263" s="36">
+        <v>1</v>
+      </c>
+      <c r="J263" s="37">
+        <f>IF(H263&gt;0,I263/H263," ")</f>
+        <v>1</v>
+      </c>
+      <c r="K263" s="35"/>
+      <c r="L263" s="36"/>
+      <c r="M263" s="38" t="str">
+        <f>IF(K263&gt;0,L263/K263," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="264" ht="12.75" customHeight="1">
+      <c r="B264" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C264" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D264" s="31">
+        <v>42552.590989386576</v>
+      </c>
+      <c r="E264" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="F264" s="33"/>
+      <c r="G264" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H264" s="35">
+        <v>1</v>
+      </c>
+      <c r="I264" s="36">
+        <v>1</v>
+      </c>
+      <c r="J264" s="37">
+        <f>IF(H264&gt;0,I264/H264," ")</f>
+        <v>1</v>
+      </c>
+      <c r="K264" s="35"/>
+      <c r="L264" s="36"/>
+      <c r="M264" s="38" t="str">
+        <f>IF(K264&gt;0,L264/K264," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="265" ht="12.75" customHeight="1">
+      <c r="B265" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C265" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D265" s="31">
+        <v>42552.590989386576</v>
+      </c>
+      <c r="E265" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="F265" s="33"/>
+      <c r="G265" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H265" s="35">
+        <v>1</v>
+      </c>
+      <c r="I265" s="36">
+        <v>1</v>
+      </c>
+      <c r="J265" s="37">
+        <f>IF(H265&gt;0,I265/H265," ")</f>
+        <v>1</v>
+      </c>
+      <c r="K265" s="35"/>
+      <c r="L265" s="36"/>
+      <c r="M265" s="38" t="str">
+        <f>IF(K265&gt;0,L265/K265," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="266" ht="12.75" customHeight="1">
+      <c r="B266" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C266" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D266" s="31">
+        <v>42552.592038113427</v>
+      </c>
+      <c r="E266" s="32" t="s">
+        <v>72</v>
+      </c>
+      <c r="F266" s="33"/>
+      <c r="G266" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H266" s="35">
+        <v>1</v>
+      </c>
+      <c r="I266" s="36">
+        <v>1</v>
+      </c>
+      <c r="J266" s="37">
+        <f>IF(H266&gt;0,I266/H266," ")</f>
+        <v>1</v>
+      </c>
+      <c r="K266" s="35"/>
+      <c r="L266" s="36"/>
+      <c r="M266" s="38" t="str">
+        <f>IF(K266&gt;0,L266/K266," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="267" ht="12.75" customHeight="1">
+      <c r="B267" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C267" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D267" s="31">
+        <v>42552.592038113427</v>
+      </c>
+      <c r="E267" s="32" t="s">
+        <v>73</v>
+      </c>
+      <c r="F267" s="33"/>
+      <c r="G267" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H267" s="35">
+        <v>1</v>
+      </c>
+      <c r="I267" s="36">
+        <v>1</v>
+      </c>
+      <c r="J267" s="37">
+        <f>IF(H267&gt;0,I267/H267," ")</f>
+        <v>1</v>
+      </c>
+      <c r="K267" s="35"/>
+      <c r="L267" s="36"/>
+      <c r="M267" s="38" t="str">
+        <f>IF(K267&gt;0,L267/K267," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="268" ht="12.75" customHeight="1">
+      <c r="B268" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C268" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D268" s="31">
+        <v>42552.592038113427</v>
+      </c>
+      <c r="E268" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="F268" s="33"/>
+      <c r="G268" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H268" s="35">
+        <v>1</v>
+      </c>
+      <c r="I268" s="36">
+        <v>1</v>
+      </c>
+      <c r="J268" s="37">
+        <f>IF(H268&gt;0,I268/H268," ")</f>
+        <v>1</v>
+      </c>
+      <c r="K268" s="35"/>
+      <c r="L268" s="36"/>
+      <c r="M268" s="38" t="str">
+        <f>IF(K268&gt;0,L268/K268," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="269" ht="12.75" customHeight="1">
+      <c r="B269" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C269" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D269" s="31">
+        <v>42552.592038113427</v>
+      </c>
+      <c r="E269" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="F269" s="33"/>
+      <c r="G269" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H269" s="35">
+        <v>1</v>
+      </c>
+      <c r="I269" s="36">
+        <v>1</v>
+      </c>
+      <c r="J269" s="37">
+        <f>IF(H269&gt;0,I269/H269," ")</f>
+        <v>1</v>
+      </c>
+      <c r="K269" s="35"/>
+      <c r="L269" s="36"/>
+      <c r="M269" s="38" t="str">
+        <f>IF(K269&gt;0,L269/K269," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="270" ht="12.75" customHeight="1">
+      <c r="B270" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C270" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D270" s="31">
+        <v>42552.592038113427</v>
+      </c>
+      <c r="E270" s="32" t="s">
+        <v>76</v>
+      </c>
+      <c r="F270" s="33"/>
+      <c r="G270" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H270" s="35">
+        <v>1</v>
+      </c>
+      <c r="I270" s="36">
+        <v>1</v>
+      </c>
+      <c r="J270" s="37">
+        <f>IF(H270&gt;0,I270/H270," ")</f>
+        <v>1</v>
+      </c>
+      <c r="K270" s="35"/>
+      <c r="L270" s="36"/>
+      <c r="M270" s="38" t="str">
+        <f>IF(K270&gt;0,L270/K270," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="271" ht="12.75" customHeight="1">
+      <c r="B271" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C271" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D271" s="31">
+        <v>42552.592038113427</v>
+      </c>
+      <c r="E271" s="32" t="s">
+        <v>77</v>
+      </c>
+      <c r="F271" s="33"/>
+      <c r="G271" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H271" s="35">
+        <v>1</v>
+      </c>
+      <c r="I271" s="36">
+        <v>1</v>
+      </c>
+      <c r="J271" s="37">
+        <f>IF(H271&gt;0,I271/H271," ")</f>
+        <v>1</v>
+      </c>
+      <c r="K271" s="35"/>
+      <c r="L271" s="36"/>
+      <c r="M271" s="38" t="str">
+        <f>IF(K271&gt;0,L271/K271," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="272" ht="12.75" customHeight="1">
+      <c r="B272" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C272" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="D272" s="31">
+        <v>42552.592038113427</v>
+      </c>
+      <c r="E272" s="32" t="s">
+        <v>78</v>
+      </c>
+      <c r="F272" s="33"/>
+      <c r="G272" s="34" t="s">
+        <v>21</v>
+      </c>
+      <c r="H272" s="35">
+        <v>1</v>
+      </c>
+      <c r="I272" s="36">
+        <v>1</v>
+      </c>
+      <c r="J272" s="37">
+        <f>IF(H272&gt;0,I272/H272," ")</f>
+        <v>1</v>
+      </c>
+      <c r="K272" s="35"/>
+      <c r="L272" s="36"/>
+      <c r="M272" s="38" t="str">
+        <f>IF(K272&gt;0,L272/K272," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="273" ht="12.75" customHeight="1">
+      <c r="B273" s="39"/>
+      <c r="C273" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D273" s="39"/>
+      <c r="E273" s="40"/>
+      <c r="F273" s="40"/>
+      <c r="G273" s="41"/>
+      <c r="H273" s="42"/>
+      <c r="I273" s="42">
+        <f>SUM(I238:I272)</f>
+        <v>35</v>
+      </c>
+      <c r="J273" s="42"/>
+      <c r="K273" s="42"/>
+      <c r="L273" s="42">
+        <f>SUM(L238:L272)</f>
         <v>0</v>
       </c>
-      <c r="M257" s="43"/>
-    </row>
-    <row r="258" ht="12.75" customHeight="1">
-      <c r="B258" s="44"/>
-      <c r="E258" s="45"/>
-      <c r="F258" s="45"/>
-      <c r="G258" s="46"/>
-      <c r="H258" s="46"/>
-      <c r="I258" s="46"/>
-      <c r="J258" s="46"/>
-      <c r="K258" s="46"/>
-      <c r="L258" s="46"/>
-      <c r="M258" s="47"/>
-    </row>
-    <row r="259" ht="12.75" customHeight="1">
-      <c r="B259" s="48"/>
-      <c r="C259" s="49" t="s">
-        <v>77</v>
-      </c>
-      <c r="D259" s="49"/>
-      <c r="E259" s="50"/>
-      <c r="F259" s="50"/>
-      <c r="G259" s="51"/>
-      <c r="H259" s="52"/>
-      <c r="I259" s="53">
-        <v>7354</v>
-      </c>
-      <c r="J259" s="52"/>
-      <c r="K259" s="52"/>
-      <c r="L259" s="53">
-        <v>2500</v>
-      </c>
-      <c r="M259" s="54"/>
-    </row>
-    <row r="260" ht="12.75" customHeight="1">
-      <c r="B260" s="55"/>
-      <c r="C260" s="56"/>
-      <c r="D260" s="56"/>
-      <c r="E260" s="55"/>
-      <c r="F260" s="55"/>
-      <c r="G260" s="57"/>
-      <c r="H260" s="57"/>
-      <c r="I260" s="57"/>
-      <c r="J260" s="57"/>
-      <c r="K260" s="57"/>
-      <c r="L260" s="57"/>
-      <c r="M260" s="58"/>
-    </row>
-    <row r="261" ht="12.75" customHeight="1">
-      <c r="H261" s="55"/>
-      <c r="I261" s="55"/>
-      <c r="J261" s="55"/>
-      <c r="K261" s="55"/>
-      <c r="L261" s="55"/>
-      <c r="M261" s="55"/>
-    </row>
-    <row r="262" ht="12.75" customHeight="1">
-      <c r="B262" s="59"/>
-      <c r="C262" s="59"/>
-      <c r="D262" s="59"/>
-      <c r="E262" s="59"/>
-      <c r="F262" s="59"/>
-      <c r="G262" s="59"/>
-      <c r="H262" s="57"/>
-      <c r="I262" s="57"/>
-      <c r="J262" s="57"/>
-      <c r="K262" s="57"/>
-      <c r="L262" s="57"/>
-      <c r="M262" s="57"/>
-    </row>
-    <row r="263" ht="12.75" customHeight="1">
-      <c r="H263" s="57"/>
-      <c r="I263" s="57"/>
-      <c r="J263" s="57"/>
-      <c r="K263" s="57"/>
-      <c r="L263" s="57"/>
-      <c r="M263" s="55"/>
-    </row>
-    <row r="264" ht="12.75" customHeight="1">
-      <c r="A264" s="60"/>
-      <c r="B264" s="61"/>
-      <c r="C264" s="62"/>
-      <c r="D264" s="62"/>
-      <c r="E264" s="62"/>
-      <c r="F264" s="62"/>
-      <c r="G264" s="62"/>
-      <c r="H264" s="62"/>
-      <c r="I264" s="62"/>
-      <c r="J264" s="62"/>
-      <c r="K264" s="62"/>
-      <c r="L264" s="62"/>
-      <c r="M264" s="62"/>
-    </row>
-    <row r="265" ht="12.75" customHeight="1">
-      <c r="A265" s="60"/>
-      <c r="B265" s="62"/>
-      <c r="C265" s="62"/>
-      <c r="D265" s="62"/>
-      <c r="E265" s="62"/>
-      <c r="F265" s="62"/>
-      <c r="G265" s="62"/>
-      <c r="H265" s="62"/>
-      <c r="I265" s="62"/>
-      <c r="J265" s="62"/>
-      <c r="K265" s="62"/>
-      <c r="L265" s="62"/>
-      <c r="M265" s="62"/>
-    </row>
-    <row r="266" ht="12.75" customHeight="1"/>
-    <row r="267" ht="12.75" customHeight="1"/>
-    <row r="268" ht="12.75" customHeight="1"/>
-    <row r="269" ht="12.75" customHeight="1"/>
-    <row r="270" ht="12.75" customHeight="1"/>
-    <row r="271" ht="12.75" customHeight="1"/>
-    <row r="272" ht="12.75" customHeight="1"/>
-    <row r="273" ht="12.75" customHeight="1"/>
-    <row r="274" ht="12.75" customHeight="1"/>
-    <row r="275" ht="12.75" customHeight="1"/>
-    <row r="276" ht="12.75" customHeight="1"/>
-    <row r="277" ht="12.75" customHeight="1"/>
-    <row r="278" ht="12.75" customHeight="1"/>
-    <row r="279" ht="12.75" customHeight="1"/>
-    <row r="280" ht="12.75" customHeight="1"/>
-    <row r="281" ht="12.75" customHeight="1"/>
-    <row r="282" ht="12.75" customHeight="1"/>
-    <row r="283" ht="12.75" customHeight="1"/>
-    <row r="284" ht="12.75" customHeight="1"/>
-    <row r="285" ht="12.75" customHeight="1"/>
-    <row r="286" ht="12.75" customHeight="1"/>
-    <row r="287" ht="12.75" customHeight="1"/>
-    <row r="288" ht="12.75" customHeight="1"/>
+      <c r="M273" s="43"/>
+    </row>
+    <row r="274" ht="12.75" customHeight="1">
+      <c r="B274" s="23"/>
+      <c r="C274" s="24"/>
+      <c r="D274" s="24"/>
+      <c r="E274" s="24"/>
+      <c r="F274" s="24"/>
+      <c r="G274" s="24"/>
+      <c r="H274" s="24"/>
+      <c r="I274" s="24"/>
+      <c r="J274" s="24"/>
+      <c r="K274" s="24"/>
+      <c r="L274" s="24"/>
+      <c r="M274" s="25"/>
+    </row>
+    <row r="275" ht="12.75" customHeight="1">
+      <c r="B275" s="26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C275" s="27"/>
+      <c r="D275" s="27"/>
+      <c r="E275" s="27"/>
+      <c r="F275" s="27"/>
+      <c r="G275" s="27"/>
+      <c r="H275" s="27"/>
+      <c r="I275" s="27"/>
+      <c r="J275" s="27"/>
+      <c r="K275" s="27"/>
+      <c r="L275" s="27"/>
+      <c r="M275" s="28"/>
+    </row>
+    <row r="276" ht="12.75" customHeight="1">
+      <c r="B276" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C276" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="D276" s="31">
+        <v>42552.9921412037</v>
+      </c>
+      <c r="E276" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="F276" s="33"/>
+      <c r="G276" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="H276" s="35">
+        <v>10</v>
+      </c>
+      <c r="I276" s="36">
+        <v>250</v>
+      </c>
+      <c r="J276" s="37">
+        <f>IF(H276&gt;0,I276/H276," ")</f>
+        <v>25</v>
+      </c>
+      <c r="K276" s="35"/>
+      <c r="L276" s="36"/>
+      <c r="M276" s="38" t="str">
+        <f>IF(K276&gt;0,L276/K276," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="277" ht="12.75" customHeight="1">
+      <c r="B277" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C277" s="30" t="s">
+        <v>80</v>
+      </c>
+      <c r="D277" s="31">
+        <v>42552.9921412037</v>
+      </c>
+      <c r="E277" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="F277" s="33"/>
+      <c r="G277" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="H277" s="35">
+        <v>20</v>
+      </c>
+      <c r="I277" s="36">
+        <v>700</v>
+      </c>
+      <c r="J277" s="37">
+        <f>IF(H277&gt;0,I277/H277," ")</f>
+        <v>35</v>
+      </c>
+      <c r="K277" s="35"/>
+      <c r="L277" s="36"/>
+      <c r="M277" s="38" t="str">
+        <f>IF(K277&gt;0,L277/K277," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="278" ht="12.75" customHeight="1">
+      <c r="B278" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C278" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D278" s="31">
+        <v>42553.993414351848</v>
+      </c>
+      <c r="E278" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="F278" s="33"/>
+      <c r="G278" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="H278" s="35">
+        <v>50</v>
+      </c>
+      <c r="I278" s="36">
+        <v>900</v>
+      </c>
+      <c r="J278" s="37">
+        <f>IF(H278&gt;0,I278/H278," ")</f>
+        <v>18</v>
+      </c>
+      <c r="K278" s="35"/>
+      <c r="L278" s="36"/>
+      <c r="M278" s="38" t="str">
+        <f>IF(K278&gt;0,L278/K278," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="279" ht="12.75" customHeight="1">
+      <c r="B279" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="C279" s="30" t="s">
+        <v>83</v>
+      </c>
+      <c r="D279" s="31">
+        <v>42553.993414351848</v>
+      </c>
+      <c r="E279" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="F279" s="33"/>
+      <c r="G279" s="34" t="s">
+        <v>82</v>
+      </c>
+      <c r="H279" s="35">
+        <v>5</v>
+      </c>
+      <c r="I279" s="36">
+        <v>90</v>
+      </c>
+      <c r="J279" s="37">
+        <f>IF(H279&gt;0,I279/H279," ")</f>
+        <v>18</v>
+      </c>
+      <c r="K279" s="35"/>
+      <c r="L279" s="36"/>
+      <c r="M279" s="38" t="str">
+        <f>IF(K279&gt;0,L279/K279," ")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="280" ht="12.75" customHeight="1">
+      <c r="B280" s="39"/>
+      <c r="C280" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D280" s="39"/>
+      <c r="E280" s="40"/>
+      <c r="F280" s="40"/>
+      <c r="G280" s="41"/>
+      <c r="H280" s="42"/>
+      <c r="I280" s="42">
+        <f>SUM(I276:I279)</f>
+        <v>1940</v>
+      </c>
+      <c r="J280" s="42"/>
+      <c r="K280" s="42"/>
+      <c r="L280" s="42">
+        <f>SUM(L276:L279)</f>
+        <v>0</v>
+      </c>
+      <c r="M280" s="43"/>
+    </row>
+    <row r="281" ht="12.75" customHeight="1">
+      <c r="B281" s="44"/>
+      <c r="E281" s="45"/>
+      <c r="F281" s="45"/>
+      <c r="G281" s="46"/>
+      <c r="H281" s="46"/>
+      <c r="I281" s="46"/>
+      <c r="J281" s="46"/>
+      <c r="K281" s="46"/>
+      <c r="L281" s="46"/>
+      <c r="M281" s="47"/>
+    </row>
+    <row r="282" ht="12.75" customHeight="1">
+      <c r="B282" s="48"/>
+      <c r="C282" s="49" t="s">
+        <v>84</v>
+      </c>
+      <c r="D282" s="49"/>
+      <c r="E282" s="50"/>
+      <c r="F282" s="50"/>
+      <c r="G282" s="51"/>
+      <c r="H282" s="52"/>
+      <c r="I282" s="53">
+        <v>2354</v>
+      </c>
+      <c r="J282" s="52"/>
+      <c r="K282" s="52"/>
+      <c r="L282" s="53">
+        <v>0</v>
+      </c>
+      <c r="M282" s="54"/>
+    </row>
+    <row r="283" ht="12.75" customHeight="1">
+      <c r="B283" s="55"/>
+      <c r="C283" s="56"/>
+      <c r="D283" s="56"/>
+      <c r="E283" s="55"/>
+      <c r="F283" s="55"/>
+      <c r="G283" s="57"/>
+      <c r="H283" s="57"/>
+      <c r="I283" s="57"/>
+      <c r="J283" s="57"/>
+      <c r="K283" s="57"/>
+      <c r="L283" s="57"/>
+      <c r="M283" s="58"/>
+    </row>
+    <row r="284" ht="12.75" customHeight="1">
+      <c r="H284" s="55"/>
+      <c r="I284" s="55"/>
+      <c r="J284" s="55"/>
+      <c r="K284" s="55"/>
+      <c r="L284" s="55"/>
+      <c r="M284" s="55"/>
+    </row>
+    <row r="285" ht="12.75" customHeight="1">
+      <c r="B285" s="59"/>
+      <c r="C285" s="59"/>
+      <c r="D285" s="59"/>
+      <c r="E285" s="59"/>
+      <c r="F285" s="59"/>
+      <c r="G285" s="59"/>
+      <c r="H285" s="57"/>
+      <c r="I285" s="57"/>
+      <c r="J285" s="57"/>
+      <c r="K285" s="57"/>
+      <c r="L285" s="57"/>
+      <c r="M285" s="57"/>
+    </row>
+    <row r="286" ht="12.75" customHeight="1">
+      <c r="H286" s="57"/>
+      <c r="I286" s="57"/>
+      <c r="J286" s="57"/>
+      <c r="K286" s="57"/>
+      <c r="L286" s="57"/>
+      <c r="M286" s="55"/>
+    </row>
+    <row r="287" ht="12.75" customHeight="1">
+      <c r="A287" s="60"/>
+      <c r="B287" s="61"/>
+      <c r="C287" s="62"/>
+      <c r="D287" s="62"/>
+      <c r="E287" s="62"/>
+      <c r="F287" s="62"/>
+      <c r="G287" s="62"/>
+      <c r="H287" s="62"/>
+      <c r="I287" s="62"/>
+      <c r="J287" s="62"/>
+      <c r="K287" s="62"/>
+      <c r="L287" s="62"/>
+      <c r="M287" s="62"/>
+    </row>
+    <row r="288" ht="12.75" customHeight="1">
+      <c r="A288" s="60"/>
+      <c r="B288" s="62"/>
+      <c r="C288" s="62"/>
+      <c r="D288" s="62"/>
+      <c r="E288" s="62"/>
+      <c r="F288" s="62"/>
+      <c r="G288" s="62"/>
+      <c r="H288" s="62"/>
+      <c r="I288" s="62"/>
+      <c r="J288" s="62"/>
+      <c r="K288" s="62"/>
+      <c r="L288" s="62"/>
+      <c r="M288" s="62"/>
+    </row>
     <row r="289" ht="12.75" customHeight="1"/>
     <row r="290" ht="12.75" customHeight="1"/>
     <row r="291" ht="12.75" customHeight="1"/>
@@ -9748,9 +10124,32 @@
     <row r="342" ht="12.75" customHeight="1"/>
     <row r="343" ht="12.75" customHeight="1"/>
     <row r="344" ht="12.75" customHeight="1"/>
+    <row r="345" ht="12.75" customHeight="1"/>
+    <row r="346" ht="12.75" customHeight="1"/>
+    <row r="347" ht="12.75" customHeight="1"/>
+    <row r="348" ht="12.75" customHeight="1"/>
+    <row r="349" ht="12.75" customHeight="1"/>
+    <row r="350" ht="12.75" customHeight="1"/>
+    <row r="351" ht="12.75" customHeight="1"/>
+    <row r="352" ht="12.75" customHeight="1"/>
+    <row r="353" ht="12.75" customHeight="1"/>
+    <row r="354" ht="12.75" customHeight="1"/>
+    <row r="355" ht="12.75" customHeight="1"/>
+    <row r="356" ht="12.75" customHeight="1"/>
+    <row r="357" ht="12.75" customHeight="1"/>
+    <row r="358" ht="12.75" customHeight="1"/>
+    <row r="359" ht="12.75" customHeight="1"/>
+    <row r="360" ht="12.75" customHeight="1"/>
+    <row r="361" ht="12.75" customHeight="1"/>
+    <row r="362" ht="12.75" customHeight="1"/>
+    <row r="363" ht="12.75" customHeight="1"/>
+    <row r="364" ht="12.75" customHeight="1"/>
+    <row r="365" ht="12.75" customHeight="1"/>
+    <row r="366" ht="12.75" customHeight="1"/>
+    <row r="367" ht="12.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="246">
-    <mergeCell ref="B262:G262"/>
+  <mergeCells count="253">
+    <mergeCell ref="B285:G285"/>
     <mergeCell ref="B1:M1"/>
     <mergeCell ref="H9:J9"/>
     <mergeCell ref="G9:G10"/>
@@ -9759,17 +10158,21 @@
     <mergeCell ref="K9:M9"/>
     <mergeCell ref="B12:M12"/>
     <mergeCell ref="E13:F13"/>
-    <mergeCell ref="B16:M16"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E16:F16"/>
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="E18:F18"/>
-    <mergeCell ref="B21:M21"/>
+    <mergeCell ref="E19:F19"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="E21:F21"/>
     <mergeCell ref="E22:F22"/>
     <mergeCell ref="E23:F23"/>
-    <mergeCell ref="B26:M26"/>
+    <mergeCell ref="E24:F24"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="E26:F26"/>
     <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E28:F28"/>
-    <mergeCell ref="E29:F29"/>
-    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="B30:M30"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="E32:F32"/>
     <mergeCell ref="E33:F33"/>
@@ -9790,9 +10193,7 @@
     <mergeCell ref="E48:F48"/>
     <mergeCell ref="E49:F49"/>
     <mergeCell ref="E50:F50"/>
-    <mergeCell ref="E51:F51"/>
-    <mergeCell ref="E52:F52"/>
-    <mergeCell ref="E53:F53"/>
+    <mergeCell ref="B53:M53"/>
     <mergeCell ref="E54:F54"/>
     <mergeCell ref="E55:F55"/>
     <mergeCell ref="E56:F56"/>
@@ -9808,9 +10209,7 @@
     <mergeCell ref="E66:F66"/>
     <mergeCell ref="E67:F67"/>
     <mergeCell ref="E68:F68"/>
-    <mergeCell ref="E69:F69"/>
-    <mergeCell ref="E70:F70"/>
-    <mergeCell ref="E71:F71"/>
+    <mergeCell ref="B71:M71"/>
     <mergeCell ref="E72:F72"/>
     <mergeCell ref="E73:F73"/>
     <mergeCell ref="E74:F74"/>
@@ -9826,9 +10225,7 @@
     <mergeCell ref="E84:F84"/>
     <mergeCell ref="E85:F85"/>
     <mergeCell ref="E86:F86"/>
-    <mergeCell ref="E87:F87"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="E89:F89"/>
+    <mergeCell ref="B89:M89"/>
     <mergeCell ref="E90:F90"/>
     <mergeCell ref="E91:F91"/>
     <mergeCell ref="E92:F92"/>
@@ -9864,9 +10261,7 @@
     <mergeCell ref="E122:F122"/>
     <mergeCell ref="E123:F123"/>
     <mergeCell ref="E124:F124"/>
-    <mergeCell ref="E125:F125"/>
-    <mergeCell ref="E126:F126"/>
-    <mergeCell ref="E127:F127"/>
+    <mergeCell ref="B127:M127"/>
     <mergeCell ref="E128:F128"/>
     <mergeCell ref="E129:F129"/>
     <mergeCell ref="E130:F130"/>
@@ -9887,9 +10282,7 @@
     <mergeCell ref="E145:F145"/>
     <mergeCell ref="E146:F146"/>
     <mergeCell ref="E147:F147"/>
-    <mergeCell ref="E148:F148"/>
-    <mergeCell ref="E149:F149"/>
-    <mergeCell ref="E150:F150"/>
+    <mergeCell ref="B150:M150"/>
     <mergeCell ref="E151:F151"/>
     <mergeCell ref="E152:F152"/>
     <mergeCell ref="E153:F153"/>
@@ -9910,9 +10303,7 @@
     <mergeCell ref="E168:F168"/>
     <mergeCell ref="E169:F169"/>
     <mergeCell ref="E170:F170"/>
-    <mergeCell ref="E171:F171"/>
-    <mergeCell ref="E172:F172"/>
-    <mergeCell ref="E173:F173"/>
+    <mergeCell ref="B173:M173"/>
     <mergeCell ref="E174:F174"/>
     <mergeCell ref="E175:F175"/>
     <mergeCell ref="E176:F176"/>
@@ -9923,9 +10314,7 @@
     <mergeCell ref="E181:F181"/>
     <mergeCell ref="E182:F182"/>
     <mergeCell ref="E183:F183"/>
-    <mergeCell ref="E184:F184"/>
-    <mergeCell ref="E185:F185"/>
-    <mergeCell ref="E186:F186"/>
+    <mergeCell ref="B186:M186"/>
     <mergeCell ref="E187:F187"/>
     <mergeCell ref="E188:F188"/>
     <mergeCell ref="E189:F189"/>
@@ -9941,9 +10330,7 @@
     <mergeCell ref="E199:F199"/>
     <mergeCell ref="E200:F200"/>
     <mergeCell ref="E201:F201"/>
-    <mergeCell ref="E202:F202"/>
-    <mergeCell ref="E203:F203"/>
-    <mergeCell ref="E204:F204"/>
+    <mergeCell ref="B204:M204"/>
     <mergeCell ref="E205:F205"/>
     <mergeCell ref="E206:F206"/>
     <mergeCell ref="E207:F207"/>
@@ -9974,9 +10361,7 @@
     <mergeCell ref="E232:F232"/>
     <mergeCell ref="E233:F233"/>
     <mergeCell ref="E234:F234"/>
-    <mergeCell ref="E235:F235"/>
-    <mergeCell ref="E236:F236"/>
-    <mergeCell ref="E237:F237"/>
+    <mergeCell ref="B237:M237"/>
     <mergeCell ref="E238:F238"/>
     <mergeCell ref="E239:F239"/>
     <mergeCell ref="E240:F240"/>
@@ -9996,6 +10381,27 @@
     <mergeCell ref="E254:F254"/>
     <mergeCell ref="E255:F255"/>
     <mergeCell ref="E256:F256"/>
+    <mergeCell ref="E257:F257"/>
+    <mergeCell ref="E258:F258"/>
+    <mergeCell ref="E259:F259"/>
+    <mergeCell ref="E260:F260"/>
+    <mergeCell ref="E261:F261"/>
+    <mergeCell ref="E262:F262"/>
+    <mergeCell ref="E263:F263"/>
+    <mergeCell ref="E264:F264"/>
+    <mergeCell ref="E265:F265"/>
+    <mergeCell ref="E266:F266"/>
+    <mergeCell ref="E267:F267"/>
+    <mergeCell ref="E268:F268"/>
+    <mergeCell ref="E269:F269"/>
+    <mergeCell ref="E270:F270"/>
+    <mergeCell ref="E271:F271"/>
+    <mergeCell ref="E272:F272"/>
+    <mergeCell ref="B275:M275"/>
+    <mergeCell ref="E276:F276"/>
+    <mergeCell ref="E277:F277"/>
+    <mergeCell ref="E278:F278"/>
+    <mergeCell ref="E279:F279"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.1965278" right="0.1965278" top="0.39375" bottom="0.39375" header="0.5118055" footer="0.5118055"/>
